--- a/data/output/FV2404_FV2310/UTILMD/55095.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55095.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14145" uniqueCount="939">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14166" uniqueCount="939">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -3026,6 +3026,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U665" totalsRowShown="0">
+  <autoFilter ref="A1:U665"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3315,7 +3345,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U665"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -34085,5 +34118,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55095.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55095.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17400" uniqueCount="1590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17108" uniqueCount="1590">
   <si>
     <t>#</t>
   </si>
@@ -10361,9 +10361,7 @@
         <v>542</v>
       </c>
       <c r="K100" s="2"/>
-      <c r="L100" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L100" s="7"/>
       <c r="M100" s="2" t="s">
         <v>43</v>
       </c>
@@ -10417,9 +10415,7 @@
         <v>542</v>
       </c>
       <c r="K101" s="2"/>
-      <c r="L101" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L101" s="7"/>
       <c r="M101" s="2" t="s">
         <v>43</v>
       </c>
@@ -10473,9 +10469,7 @@
         <v>542</v>
       </c>
       <c r="K102" s="2"/>
-      <c r="L102" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L102" s="7"/>
       <c r="M102" s="2" t="s">
         <v>43</v>
       </c>
@@ -10901,9 +10895,7 @@
         <v>542</v>
       </c>
       <c r="K110" s="2"/>
-      <c r="L110" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L110" s="7"/>
       <c r="M110" s="2" t="s">
         <v>45</v>
       </c>
@@ -11154,46 +11146,44 @@
       </c>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="5" t="s">
         <v>1043</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2" t="s">
+      <c r="C115" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="K115" s="2" t="s">
+      <c r="K115" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="L115" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M115" s="2" t="s">
+      <c r="L115" s="7"/>
+      <c r="M115" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N115" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O115" s="2"/>
-      <c r="P115" s="2"/>
-      <c r="Q115" s="2"/>
-      <c r="R115" s="2"/>
-      <c r="S115" s="2"/>
-      <c r="T115" s="2"/>
-      <c r="U115" s="2" t="s">
+      <c r="N115" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O115" s="5"/>
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
+      <c r="R115" s="5"/>
+      <c r="S115" s="5"/>
+      <c r="T115" s="5"/>
+      <c r="U115" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="V115" s="2" t="s">
+      <c r="V115" s="5" t="s">
         <v>680</v>
       </c>
     </row>
@@ -11456,44 +11446,42 @@
       </c>
     </row>
     <row r="121" spans="1:22">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K121" s="2"/>
-      <c r="L121" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M121" s="2" t="s">
+      <c r="C121" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K121" s="5"/>
+      <c r="L121" s="7"/>
+      <c r="M121" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N121" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O121" s="2"/>
-      <c r="P121" s="2"/>
-      <c r="Q121" s="2"/>
-      <c r="R121" s="2"/>
-      <c r="S121" s="2"/>
-      <c r="T121" s="2"/>
-      <c r="U121" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V121" s="2"/>
+      <c r="N121" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O121" s="5"/>
+      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
+      <c r="R121" s="5"/>
+      <c r="S121" s="5"/>
+      <c r="T121" s="5"/>
+      <c r="U121" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V121" s="5"/>
     </row>
     <row r="122" spans="1:22">
       <c r="A122" s="2" t="s">
@@ -11677,9 +11665,7 @@
         <v>542</v>
       </c>
       <c r="K125" s="2"/>
-      <c r="L125" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L125" s="7"/>
       <c r="M125" s="2" t="s">
         <v>49</v>
       </c>
@@ -11706,44 +11692,42 @@
       <c r="V125" s="2"/>
     </row>
     <row r="126" spans="1:22">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="5" t="s">
         <v>1054</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K126" s="2"/>
-      <c r="L126" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M126" s="2" t="s">
+      <c r="C126" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K126" s="5"/>
+      <c r="L126" s="7"/>
+      <c r="M126" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N126" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O126" s="2"/>
-      <c r="P126" s="2"/>
-      <c r="Q126" s="2"/>
-      <c r="R126" s="2"/>
-      <c r="S126" s="2"/>
-      <c r="T126" s="2"/>
-      <c r="U126" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V126" s="2"/>
+      <c r="N126" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O126" s="5"/>
+      <c r="P126" s="5"/>
+      <c r="Q126" s="5"/>
+      <c r="R126" s="5"/>
+      <c r="S126" s="5"/>
+      <c r="T126" s="5"/>
+      <c r="U126" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V126" s="5"/>
     </row>
     <row r="127" spans="1:22">
       <c r="A127" s="2" t="s">
@@ -12136,46 +12120,44 @@
       <c r="V134" s="9"/>
     </row>
     <row r="135" spans="1:22">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2" t="s">
+      <c r="C135" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="K135" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="L135" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M135" s="2" t="s">
+      <c r="L135" s="7"/>
+      <c r="M135" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N135" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O135" s="2"/>
-      <c r="P135" s="2"/>
-      <c r="Q135" s="2"/>
-      <c r="R135" s="2"/>
-      <c r="S135" s="2"/>
-      <c r="T135" s="2"/>
-      <c r="U135" s="2" t="s">
+      <c r="N135" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O135" s="5"/>
+      <c r="P135" s="5"/>
+      <c r="Q135" s="5"/>
+      <c r="R135" s="5"/>
+      <c r="S135" s="5"/>
+      <c r="T135" s="5"/>
+      <c r="U135" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="V135" s="2" t="s">
+      <c r="V135" s="5" t="s">
         <v>681</v>
       </c>
     </row>
@@ -12654,46 +12636,44 @@
       <c r="V144" s="2"/>
     </row>
     <row r="145" spans="1:22">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="5" t="s">
         <v>1072</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2" t="s">
+      <c r="C145" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="K145" s="2" t="s">
+      <c r="K145" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="L145" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M145" s="2" t="s">
+      <c r="L145" s="7"/>
+      <c r="M145" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N145" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O145" s="2"/>
-      <c r="P145" s="2"/>
-      <c r="Q145" s="2"/>
-      <c r="R145" s="2"/>
-      <c r="S145" s="2"/>
-      <c r="T145" s="2"/>
-      <c r="U145" s="2" t="s">
+      <c r="N145" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O145" s="5"/>
+      <c r="P145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="5"/>
+      <c r="S145" s="5"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="V145" s="2" t="s">
+      <c r="V145" s="5" t="s">
         <v>683</v>
       </c>
     </row>
@@ -12852,44 +12832,42 @@
       <c r="V148" s="2"/>
     </row>
     <row r="149" spans="1:22">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="5" t="s">
         <v>1076</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K149" s="2"/>
-      <c r="L149" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M149" s="2" t="s">
+      <c r="C149" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K149" s="5"/>
+      <c r="L149" s="7"/>
+      <c r="M149" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N149" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O149" s="2"/>
-      <c r="P149" s="2"/>
-      <c r="Q149" s="2"/>
-      <c r="R149" s="2"/>
-      <c r="S149" s="2"/>
-      <c r="T149" s="2"/>
-      <c r="U149" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V149" s="2"/>
+      <c r="N149" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O149" s="5"/>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
+      <c r="R149" s="5"/>
+      <c r="S149" s="5"/>
+      <c r="T149" s="5"/>
+      <c r="U149" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V149" s="5"/>
     </row>
     <row r="150" spans="1:22">
       <c r="A150" s="2" t="s">
@@ -13127,9 +13105,7 @@
         <v>542</v>
       </c>
       <c r="K154" s="2"/>
-      <c r="L154" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L154" s="7"/>
       <c r="M154" s="2" t="s">
         <v>54</v>
       </c>
@@ -13210,44 +13186,42 @@
       <c r="V155" s="2"/>
     </row>
     <row r="156" spans="1:22">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="5" t="s">
         <v>1083</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K156" s="2"/>
-      <c r="L156" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M156" s="2" t="s">
+      <c r="C156" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K156" s="5"/>
+      <c r="L156" s="7"/>
+      <c r="M156" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N156" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O156" s="2"/>
-      <c r="P156" s="2"/>
-      <c r="Q156" s="2"/>
-      <c r="R156" s="2"/>
-      <c r="S156" s="2"/>
-      <c r="T156" s="2"/>
-      <c r="U156" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V156" s="2"/>
+      <c r="N156" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O156" s="5"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="5"/>
+      <c r="T156" s="5"/>
+      <c r="U156" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V156" s="5"/>
     </row>
     <row r="157" spans="1:22">
       <c r="A157" s="2" t="s">
@@ -13354,46 +13328,44 @@
       <c r="V158" s="2"/>
     </row>
     <row r="159" spans="1:22">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="5" t="s">
         <v>1086</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="2"/>
-      <c r="J159" s="2" t="s">
+      <c r="C159" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="K159" s="2" t="s">
+      <c r="K159" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="L159" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M159" s="2" t="s">
+      <c r="L159" s="7"/>
+      <c r="M159" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N159" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O159" s="2"/>
-      <c r="P159" s="2"/>
-      <c r="Q159" s="2"/>
-      <c r="R159" s="2"/>
-      <c r="S159" s="2"/>
-      <c r="T159" s="2"/>
-      <c r="U159" s="2" t="s">
+      <c r="N159" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O159" s="5"/>
+      <c r="P159" s="5"/>
+      <c r="Q159" s="5"/>
+      <c r="R159" s="5"/>
+      <c r="S159" s="5"/>
+      <c r="T159" s="5"/>
+      <c r="U159" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="V159" s="2" t="s">
+      <c r="V159" s="5" t="s">
         <v>659</v>
       </c>
     </row>
@@ -13656,46 +13628,44 @@
       </c>
     </row>
     <row r="165" spans="1:22">
-      <c r="A165" s="2" t="s">
+      <c r="A165" s="5" t="s">
         <v>1092</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
-      <c r="I165" s="2"/>
-      <c r="J165" s="2" t="s">
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="K165" s="2" t="s">
+      <c r="K165" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="L165" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M165" s="2" t="s">
+      <c r="L165" s="7"/>
+      <c r="M165" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N165" s="2" t="s">
+      <c r="N165" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="O165" s="2"/>
-      <c r="P165" s="2"/>
-      <c r="Q165" s="2"/>
-      <c r="R165" s="2"/>
-      <c r="S165" s="2"/>
-      <c r="T165" s="2"/>
-      <c r="U165" s="2" t="s">
+      <c r="O165" s="5"/>
+      <c r="P165" s="5"/>
+      <c r="Q165" s="5"/>
+      <c r="R165" s="5"/>
+      <c r="S165" s="5"/>
+      <c r="T165" s="5"/>
+      <c r="U165" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="V165" s="2" t="s">
+      <c r="V165" s="5" t="s">
         <v>684</v>
       </c>
     </row>
@@ -13831,9 +13801,7 @@
         <v>542</v>
       </c>
       <c r="K168" s="2"/>
-      <c r="L168" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L168" s="7"/>
       <c r="M168" s="2" t="s">
         <v>58</v>
       </c>
@@ -13889,9 +13857,7 @@
       <c r="K169" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="L169" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L169" s="7"/>
       <c r="M169" s="2" t="s">
         <v>58</v>
       </c>
@@ -14063,9 +14029,7 @@
         <v>585</v>
       </c>
       <c r="K172" s="2"/>
-      <c r="L172" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L172" s="7"/>
       <c r="M172" s="2" t="s">
         <v>58</v>
       </c>
@@ -14121,9 +14085,7 @@
       <c r="K173" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="L173" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L173" s="7"/>
       <c r="M173" s="2" t="s">
         <v>58</v>
       </c>
@@ -14152,46 +14114,44 @@
       </c>
     </row>
     <row r="174" spans="1:22">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="5" t="s">
         <v>1101</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2" t="s">
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="K174" s="2" t="s">
+      <c r="K174" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="L174" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M174" s="2" t="s">
+      <c r="L174" s="7"/>
+      <c r="M174" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N174" s="2" t="s">
+      <c r="N174" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="O174" s="2"/>
-      <c r="P174" s="2"/>
-      <c r="Q174" s="2"/>
-      <c r="R174" s="2"/>
-      <c r="S174" s="2"/>
-      <c r="T174" s="2"/>
-      <c r="U174" s="2" t="s">
+      <c r="O174" s="5"/>
+      <c r="P174" s="5"/>
+      <c r="Q174" s="5"/>
+      <c r="R174" s="5"/>
+      <c r="S174" s="5"/>
+      <c r="T174" s="5"/>
+      <c r="U174" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="V174" s="2" t="s">
+      <c r="V174" s="5" t="s">
         <v>688</v>
       </c>
     </row>
@@ -14416,44 +14376,42 @@
       <c r="V178" s="2"/>
     </row>
     <row r="179" spans="1:22">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="5" t="s">
         <v>1106</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
-      <c r="I179" s="2"/>
-      <c r="J179" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K179" s="2"/>
-      <c r="L179" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M179" s="2" t="s">
+      <c r="C179" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K179" s="5"/>
+      <c r="L179" s="7"/>
+      <c r="M179" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N179" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O179" s="2"/>
-      <c r="P179" s="2"/>
-      <c r="Q179" s="2"/>
-      <c r="R179" s="2"/>
-      <c r="S179" s="2"/>
-      <c r="T179" s="2"/>
-      <c r="U179" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V179" s="2"/>
+      <c r="N179" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O179" s="5"/>
+      <c r="P179" s="5"/>
+      <c r="Q179" s="5"/>
+      <c r="R179" s="5"/>
+      <c r="S179" s="5"/>
+      <c r="T179" s="5"/>
+      <c r="U179" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V179" s="5"/>
     </row>
     <row r="180" spans="1:22">
       <c r="A180" s="2" t="s">
@@ -14610,44 +14568,42 @@
       <c r="V182" s="2"/>
     </row>
     <row r="183" spans="1:22">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="5" t="s">
         <v>1110</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
-      <c r="I183" s="2"/>
-      <c r="J183" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K183" s="2"/>
-      <c r="L183" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M183" s="2" t="s">
+      <c r="C183" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K183" s="5"/>
+      <c r="L183" s="7"/>
+      <c r="M183" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N183" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O183" s="2"/>
-      <c r="P183" s="2"/>
-      <c r="Q183" s="2"/>
-      <c r="R183" s="2"/>
-      <c r="S183" s="2"/>
-      <c r="T183" s="2"/>
-      <c r="U183" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V183" s="2"/>
+      <c r="N183" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O183" s="5"/>
+      <c r="P183" s="5"/>
+      <c r="Q183" s="5"/>
+      <c r="R183" s="5"/>
+      <c r="S183" s="5"/>
+      <c r="T183" s="5"/>
+      <c r="U183" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V183" s="5"/>
     </row>
     <row r="184" spans="1:22">
       <c r="A184" s="2" t="s">
@@ -15155,9 +15111,7 @@
         <v>542</v>
       </c>
       <c r="K193" s="2"/>
-      <c r="L193" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L193" s="7"/>
       <c r="M193" s="2" t="s">
         <v>51</v>
       </c>
@@ -15312,44 +15266,42 @@
       <c r="V196" s="9"/>
     </row>
     <row r="197" spans="1:22">
-      <c r="A197" s="2" t="s">
+      <c r="A197" s="5" t="s">
         <v>1124</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2"/>
-      <c r="F197" s="2"/>
-      <c r="G197" s="2"/>
-      <c r="H197" s="2"/>
-      <c r="I197" s="2"/>
-      <c r="J197" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K197" s="2"/>
-      <c r="L197" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M197" s="2" t="s">
+      <c r="C197" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K197" s="5"/>
+      <c r="L197" s="7"/>
+      <c r="M197" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N197" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O197" s="2"/>
-      <c r="P197" s="2"/>
-      <c r="Q197" s="2"/>
-      <c r="R197" s="2"/>
-      <c r="S197" s="2"/>
-      <c r="T197" s="2"/>
-      <c r="U197" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V197" s="2"/>
+      <c r="N197" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O197" s="5"/>
+      <c r="P197" s="5"/>
+      <c r="Q197" s="5"/>
+      <c r="R197" s="5"/>
+      <c r="S197" s="5"/>
+      <c r="T197" s="5"/>
+      <c r="U197" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V197" s="5"/>
     </row>
     <row r="198" spans="1:22">
       <c r="A198" s="2" t="s">
@@ -15502,44 +15454,42 @@
       <c r="V200" s="2"/>
     </row>
     <row r="201" spans="1:22">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="5" t="s">
         <v>1128</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C201" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
-      <c r="I201" s="2"/>
-      <c r="J201" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K201" s="2"/>
-      <c r="L201" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M201" s="2" t="s">
+      <c r="C201" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+      <c r="J201" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K201" s="5"/>
+      <c r="L201" s="7"/>
+      <c r="M201" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N201" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O201" s="2"/>
-      <c r="P201" s="2"/>
-      <c r="Q201" s="2"/>
-      <c r="R201" s="2"/>
-      <c r="S201" s="2"/>
-      <c r="T201" s="2"/>
-      <c r="U201" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V201" s="2"/>
+      <c r="N201" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O201" s="5"/>
+      <c r="P201" s="5"/>
+      <c r="Q201" s="5"/>
+      <c r="R201" s="5"/>
+      <c r="S201" s="5"/>
+      <c r="T201" s="5"/>
+      <c r="U201" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V201" s="5"/>
     </row>
     <row r="202" spans="1:22">
       <c r="A202" s="2" t="s">
@@ -15692,46 +15642,44 @@
       <c r="V204" s="2"/>
     </row>
     <row r="205" spans="1:22">
-      <c r="A205" s="2" t="s">
+      <c r="A205" s="5" t="s">
         <v>1132</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
-      <c r="I205" s="2"/>
-      <c r="J205" s="2" t="s">
+      <c r="C205" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="K205" s="2" t="s">
+      <c r="K205" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="L205" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M205" s="2" t="s">
+      <c r="L205" s="7"/>
+      <c r="M205" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="N205" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O205" s="2"/>
-      <c r="P205" s="2"/>
-      <c r="Q205" s="2"/>
-      <c r="R205" s="2"/>
-      <c r="S205" s="2"/>
-      <c r="T205" s="2"/>
-      <c r="U205" s="2" t="s">
+      <c r="N205" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O205" s="5"/>
+      <c r="P205" s="5"/>
+      <c r="Q205" s="5"/>
+      <c r="R205" s="5"/>
+      <c r="S205" s="5"/>
+      <c r="T205" s="5"/>
+      <c r="U205" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="V205" s="2" t="s">
+      <c r="V205" s="5" t="s">
         <v>659</v>
       </c>
     </row>
@@ -15990,44 +15938,42 @@
       <c r="V210" s="2"/>
     </row>
     <row r="211" spans="1:22">
-      <c r="A211" s="2" t="s">
+      <c r="A211" s="5" t="s">
         <v>1138</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
-      <c r="I211" s="2"/>
-      <c r="J211" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K211" s="2"/>
-      <c r="L211" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M211" s="2" t="s">
+      <c r="C211" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="5"/>
+      <c r="J211" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K211" s="5"/>
+      <c r="L211" s="7"/>
+      <c r="M211" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N211" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O211" s="2"/>
-      <c r="P211" s="2"/>
-      <c r="Q211" s="2"/>
-      <c r="R211" s="2"/>
-      <c r="S211" s="2"/>
-      <c r="T211" s="2"/>
-      <c r="U211" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V211" s="2"/>
+      <c r="N211" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O211" s="5"/>
+      <c r="P211" s="5"/>
+      <c r="Q211" s="5"/>
+      <c r="R211" s="5"/>
+      <c r="S211" s="5"/>
+      <c r="T211" s="5"/>
+      <c r="U211" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V211" s="5"/>
     </row>
     <row r="212" spans="1:22">
       <c r="A212" s="2" t="s">
@@ -16265,9 +16211,7 @@
         <v>542</v>
       </c>
       <c r="K216" s="2"/>
-      <c r="L216" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L216" s="7"/>
       <c r="M216" s="2" t="s">
         <v>65</v>
       </c>
@@ -16321,9 +16265,7 @@
         <v>542</v>
       </c>
       <c r="K217" s="2"/>
-      <c r="L217" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L217" s="7"/>
       <c r="M217" s="2" t="s">
         <v>65</v>
       </c>
@@ -16377,9 +16319,7 @@
         <v>542</v>
       </c>
       <c r="K218" s="2"/>
-      <c r="L218" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L218" s="7"/>
       <c r="M218" s="2" t="s">
         <v>65</v>
       </c>
@@ -16541,9 +16481,7 @@
         <v>592</v>
       </c>
       <c r="K221" s="2"/>
-      <c r="L221" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L221" s="7"/>
       <c r="M221" s="2" t="s">
         <v>66</v>
       </c>
@@ -16599,9 +16537,7 @@
       <c r="K222" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="L222" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L222" s="7"/>
       <c r="M222" s="2" t="s">
         <v>66</v>
       </c>
@@ -16630,44 +16566,42 @@
       </c>
     </row>
     <row r="223" spans="1:22">
-      <c r="A223" s="2" t="s">
+      <c r="A223" s="5" t="s">
         <v>1150</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D223" s="2"/>
-      <c r="E223" s="2"/>
-      <c r="F223" s="2"/>
-      <c r="G223" s="2"/>
-      <c r="H223" s="2"/>
-      <c r="I223" s="2"/>
-      <c r="J223" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K223" s="2"/>
-      <c r="L223" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M223" s="2" t="s">
+      <c r="C223" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+      <c r="I223" s="5"/>
+      <c r="J223" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K223" s="5"/>
+      <c r="L223" s="7"/>
+      <c r="M223" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N223" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O223" s="2"/>
-      <c r="P223" s="2"/>
-      <c r="Q223" s="2"/>
-      <c r="R223" s="2"/>
-      <c r="S223" s="2"/>
-      <c r="T223" s="2"/>
-      <c r="U223" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V223" s="2"/>
+      <c r="N223" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O223" s="5"/>
+      <c r="P223" s="5"/>
+      <c r="Q223" s="5"/>
+      <c r="R223" s="5"/>
+      <c r="S223" s="5"/>
+      <c r="T223" s="5"/>
+      <c r="U223" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V223" s="5"/>
     </row>
     <row r="224" spans="1:22">
       <c r="A224" s="2" t="s">
@@ -16905,9 +16839,7 @@
         <v>542</v>
       </c>
       <c r="K228" s="2"/>
-      <c r="L228" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L228" s="7"/>
       <c r="M228" s="2" t="s">
         <v>67</v>
       </c>
@@ -16934,44 +16866,42 @@
       <c r="V228" s="2"/>
     </row>
     <row r="229" spans="1:22">
-      <c r="A229" s="2" t="s">
+      <c r="A229" s="5" t="s">
         <v>1156</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
-      <c r="H229" s="2"/>
-      <c r="I229" s="2"/>
-      <c r="J229" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K229" s="2"/>
-      <c r="L229" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M229" s="2" t="s">
+      <c r="C229" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
+      <c r="G229" s="5"/>
+      <c r="H229" s="5"/>
+      <c r="I229" s="5"/>
+      <c r="J229" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K229" s="5"/>
+      <c r="L229" s="7"/>
+      <c r="M229" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N229" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O229" s="2"/>
-      <c r="P229" s="2"/>
-      <c r="Q229" s="2"/>
-      <c r="R229" s="2"/>
-      <c r="S229" s="2"/>
-      <c r="T229" s="2"/>
-      <c r="U229" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V229" s="2"/>
+      <c r="N229" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O229" s="5"/>
+      <c r="P229" s="5"/>
+      <c r="Q229" s="5"/>
+      <c r="R229" s="5"/>
+      <c r="S229" s="5"/>
+      <c r="T229" s="5"/>
+      <c r="U229" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V229" s="5"/>
     </row>
     <row r="230" spans="1:22">
       <c r="A230" s="2" t="s">
@@ -17155,9 +17085,7 @@
         <v>542</v>
       </c>
       <c r="K233" s="2"/>
-      <c r="L233" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L233" s="7"/>
       <c r="M233" s="2" t="s">
         <v>68</v>
       </c>
@@ -17184,44 +17112,42 @@
       <c r="V233" s="2"/>
     </row>
     <row r="234" spans="1:22">
-      <c r="A234" s="2" t="s">
+      <c r="A234" s="5" t="s">
         <v>1161</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
-      <c r="G234" s="2"/>
-      <c r="H234" s="2"/>
-      <c r="I234" s="2"/>
-      <c r="J234" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K234" s="2"/>
-      <c r="L234" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M234" s="2" t="s">
+      <c r="C234" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D234" s="5"/>
+      <c r="E234" s="5"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="5"/>
+      <c r="H234" s="5"/>
+      <c r="I234" s="5"/>
+      <c r="J234" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K234" s="5"/>
+      <c r="L234" s="7"/>
+      <c r="M234" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N234" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O234" s="2"/>
-      <c r="P234" s="2"/>
-      <c r="Q234" s="2"/>
-      <c r="R234" s="2"/>
-      <c r="S234" s="2"/>
-      <c r="T234" s="2"/>
-      <c r="U234" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V234" s="2"/>
+      <c r="N234" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O234" s="5"/>
+      <c r="P234" s="5"/>
+      <c r="Q234" s="5"/>
+      <c r="R234" s="5"/>
+      <c r="S234" s="5"/>
+      <c r="T234" s="5"/>
+      <c r="U234" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V234" s="5"/>
     </row>
     <row r="235" spans="1:22">
       <c r="A235" s="2" t="s">
@@ -17355,9 +17281,7 @@
         <v>596</v>
       </c>
       <c r="K237" s="2"/>
-      <c r="L237" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L237" s="7"/>
       <c r="M237" s="2" t="s">
         <v>69</v>
       </c>
@@ -17519,9 +17443,7 @@
         <v>596</v>
       </c>
       <c r="K240" s="2"/>
-      <c r="L240" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L240" s="7"/>
       <c r="M240" s="2" t="s">
         <v>70</v>
       </c>
@@ -17575,9 +17497,7 @@
         <v>596</v>
       </c>
       <c r="K241" s="2"/>
-      <c r="L241" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L241" s="7"/>
       <c r="M241" s="2" t="s">
         <v>70</v>
       </c>
@@ -17604,44 +17524,42 @@
       <c r="V241" s="2"/>
     </row>
     <row r="242" spans="1:22">
-      <c r="A242" s="2" t="s">
+      <c r="A242" s="5" t="s">
         <v>1169</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D242" s="2"/>
-      <c r="E242" s="2"/>
-      <c r="F242" s="2"/>
-      <c r="G242" s="2"/>
-      <c r="H242" s="2"/>
-      <c r="I242" s="2"/>
-      <c r="J242" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K242" s="2"/>
-      <c r="L242" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M242" s="2" t="s">
+      <c r="C242" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="5"/>
+      <c r="H242" s="5"/>
+      <c r="I242" s="5"/>
+      <c r="J242" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K242" s="5"/>
+      <c r="L242" s="7"/>
+      <c r="M242" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N242" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O242" s="2"/>
-      <c r="P242" s="2"/>
-      <c r="Q242" s="2"/>
-      <c r="R242" s="2"/>
-      <c r="S242" s="2"/>
-      <c r="T242" s="2"/>
-      <c r="U242" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V242" s="2"/>
+      <c r="N242" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O242" s="5"/>
+      <c r="P242" s="5"/>
+      <c r="Q242" s="5"/>
+      <c r="R242" s="5"/>
+      <c r="S242" s="5"/>
+      <c r="T242" s="5"/>
+      <c r="U242" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V242" s="5"/>
     </row>
     <row r="243" spans="1:22">
       <c r="A243" s="2" t="s">
@@ -17879,9 +17797,7 @@
         <v>542</v>
       </c>
       <c r="K247" s="2"/>
-      <c r="L247" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L247" s="7"/>
       <c r="M247" s="2" t="s">
         <v>72</v>
       </c>
@@ -17935,9 +17851,7 @@
         <v>542</v>
       </c>
       <c r="K248" s="2"/>
-      <c r="L248" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L248" s="7"/>
       <c r="M248" s="2" t="s">
         <v>72</v>
       </c>
@@ -17991,9 +17905,7 @@
         <v>542</v>
       </c>
       <c r="K249" s="2"/>
-      <c r="L249" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L249" s="7"/>
       <c r="M249" s="2" t="s">
         <v>72</v>
       </c>
@@ -18047,9 +17959,7 @@
         <v>542</v>
       </c>
       <c r="K250" s="2"/>
-      <c r="L250" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L250" s="7"/>
       <c r="M250" s="2" t="s">
         <v>72</v>
       </c>
@@ -18076,46 +17986,44 @@
       <c r="V250" s="2"/>
     </row>
     <row r="251" spans="1:22">
-      <c r="A251" s="2" t="s">
+      <c r="A251" s="5" t="s">
         <v>1178</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D251" s="2"/>
-      <c r="E251" s="2"/>
-      <c r="F251" s="2"/>
-      <c r="G251" s="2"/>
-      <c r="H251" s="2"/>
-      <c r="I251" s="2"/>
-      <c r="J251" s="2" t="s">
+      <c r="C251" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D251" s="5"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="5"/>
+      <c r="H251" s="5"/>
+      <c r="I251" s="5"/>
+      <c r="J251" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="K251" s="2" t="s">
+      <c r="K251" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="L251" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M251" s="2" t="s">
+      <c r="L251" s="7"/>
+      <c r="M251" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="N251" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O251" s="2"/>
-      <c r="P251" s="2"/>
-      <c r="Q251" s="2"/>
-      <c r="R251" s="2"/>
-      <c r="S251" s="2"/>
-      <c r="T251" s="2"/>
-      <c r="U251" s="2" t="s">
+      <c r="N251" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O251" s="5"/>
+      <c r="P251" s="5"/>
+      <c r="Q251" s="5"/>
+      <c r="R251" s="5"/>
+      <c r="S251" s="5"/>
+      <c r="T251" s="5"/>
+      <c r="U251" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="V251" s="2" t="s">
+      <c r="V251" s="5" t="s">
         <v>693</v>
       </c>
     </row>
@@ -18594,46 +18502,44 @@
       <c r="V260" s="2"/>
     </row>
     <row r="261" spans="1:22">
-      <c r="A261" s="2" t="s">
+      <c r="A261" s="5" t="s">
         <v>1188</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B261" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C261" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D261" s="2"/>
-      <c r="E261" s="2"/>
-      <c r="F261" s="2"/>
-      <c r="G261" s="2"/>
-      <c r="H261" s="2"/>
-      <c r="I261" s="2"/>
-      <c r="J261" s="2" t="s">
+      <c r="C261" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D261" s="5"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="5"/>
+      <c r="H261" s="5"/>
+      <c r="I261" s="5"/>
+      <c r="J261" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="K261" s="2" t="s">
+      <c r="K261" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="L261" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M261" s="2" t="s">
+      <c r="L261" s="7"/>
+      <c r="M261" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N261" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O261" s="2"/>
-      <c r="P261" s="2"/>
-      <c r="Q261" s="2"/>
-      <c r="R261" s="2"/>
-      <c r="S261" s="2"/>
-      <c r="T261" s="2"/>
-      <c r="U261" s="2" t="s">
+      <c r="N261" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O261" s="5"/>
+      <c r="P261" s="5"/>
+      <c r="Q261" s="5"/>
+      <c r="R261" s="5"/>
+      <c r="S261" s="5"/>
+      <c r="T261" s="5"/>
+      <c r="U261" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="V261" s="2" t="s">
+      <c r="V261" s="5" t="s">
         <v>695</v>
       </c>
     </row>
@@ -18873,9 +18779,7 @@
         <v>542</v>
       </c>
       <c r="K266" s="2"/>
-      <c r="L266" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L266" s="7"/>
       <c r="M266" s="2" t="s">
         <v>75</v>
       </c>
@@ -18929,9 +18833,7 @@
         <v>542</v>
       </c>
       <c r="K267" s="2"/>
-      <c r="L267" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L267" s="7"/>
       <c r="M267" s="2" t="s">
         <v>75</v>
       </c>
@@ -18985,9 +18887,7 @@
         <v>542</v>
       </c>
       <c r="K268" s="2"/>
-      <c r="L268" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L268" s="7"/>
       <c r="M268" s="2" t="s">
         <v>75</v>
       </c>
@@ -19014,44 +18914,42 @@
       <c r="V268" s="2"/>
     </row>
     <row r="269" spans="1:22">
-      <c r="A269" s="2" t="s">
+      <c r="A269" s="5" t="s">
         <v>1195</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C269" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D269" s="2"/>
-      <c r="E269" s="2"/>
-      <c r="F269" s="2"/>
-      <c r="G269" s="2"/>
-      <c r="H269" s="2"/>
-      <c r="I269" s="2"/>
-      <c r="J269" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K269" s="2"/>
-      <c r="L269" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M269" s="2" t="s">
+      <c r="C269" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D269" s="5"/>
+      <c r="E269" s="5"/>
+      <c r="F269" s="5"/>
+      <c r="G269" s="5"/>
+      <c r="H269" s="5"/>
+      <c r="I269" s="5"/>
+      <c r="J269" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K269" s="5"/>
+      <c r="L269" s="7"/>
+      <c r="M269" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N269" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O269" s="2"/>
-      <c r="P269" s="2"/>
-      <c r="Q269" s="2"/>
-      <c r="R269" s="2"/>
-      <c r="S269" s="2"/>
-      <c r="T269" s="2"/>
-      <c r="U269" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V269" s="2"/>
+      <c r="N269" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O269" s="5"/>
+      <c r="P269" s="5"/>
+      <c r="Q269" s="5"/>
+      <c r="R269" s="5"/>
+      <c r="S269" s="5"/>
+      <c r="T269" s="5"/>
+      <c r="U269" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V269" s="5"/>
     </row>
     <row r="270" spans="1:22">
       <c r="A270" s="2" t="s">
@@ -19289,9 +19187,7 @@
         <v>602</v>
       </c>
       <c r="K274" s="2"/>
-      <c r="L274" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L274" s="7"/>
       <c r="M274" s="2" t="s">
         <v>77</v>
       </c>
@@ -19345,9 +19241,7 @@
         <v>603</v>
       </c>
       <c r="K275" s="2"/>
-      <c r="L275" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L275" s="7"/>
       <c r="M275" s="2" t="s">
         <v>77</v>
       </c>
@@ -19401,9 +19295,7 @@
         <v>604</v>
       </c>
       <c r="K276" s="2"/>
-      <c r="L276" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L276" s="7"/>
       <c r="M276" s="2" t="s">
         <v>77</v>
       </c>
@@ -19430,46 +19322,44 @@
       <c r="V276" s="2"/>
     </row>
     <row r="277" spans="1:22">
-      <c r="A277" s="2" t="s">
+      <c r="A277" s="5" t="s">
         <v>1203</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B277" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C277" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D277" s="2"/>
-      <c r="E277" s="2"/>
-      <c r="F277" s="2"/>
-      <c r="G277" s="2"/>
-      <c r="H277" s="2"/>
-      <c r="I277" s="2"/>
-      <c r="J277" s="2" t="s">
+      <c r="C277" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D277" s="5"/>
+      <c r="E277" s="5"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="5"/>
+      <c r="I277" s="5"/>
+      <c r="J277" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="K277" s="2" t="s">
+      <c r="K277" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="L277" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M277" s="2" t="s">
+      <c r="L277" s="7"/>
+      <c r="M277" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N277" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O277" s="2"/>
-      <c r="P277" s="2"/>
-      <c r="Q277" s="2"/>
-      <c r="R277" s="2"/>
-      <c r="S277" s="2"/>
-      <c r="T277" s="2"/>
-      <c r="U277" s="2" t="s">
+      <c r="N277" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O277" s="5"/>
+      <c r="P277" s="5"/>
+      <c r="Q277" s="5"/>
+      <c r="R277" s="5"/>
+      <c r="S277" s="5"/>
+      <c r="T277" s="5"/>
+      <c r="U277" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="V277" s="2" t="s">
+      <c r="V277" s="5" t="s">
         <v>690</v>
       </c>
     </row>
@@ -19944,44 +19834,42 @@
       <c r="V286" s="2"/>
     </row>
     <row r="287" spans="1:22">
-      <c r="A287" s="2" t="s">
+      <c r="A287" s="5" t="s">
         <v>1213</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B287" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C287" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D287" s="2"/>
-      <c r="E287" s="2"/>
-      <c r="F287" s="2"/>
-      <c r="G287" s="2"/>
-      <c r="H287" s="2"/>
-      <c r="I287" s="2"/>
-      <c r="J287" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K287" s="2"/>
-      <c r="L287" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M287" s="2" t="s">
+      <c r="C287" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D287" s="5"/>
+      <c r="E287" s="5"/>
+      <c r="F287" s="5"/>
+      <c r="G287" s="5"/>
+      <c r="H287" s="5"/>
+      <c r="I287" s="5"/>
+      <c r="J287" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K287" s="5"/>
+      <c r="L287" s="7"/>
+      <c r="M287" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N287" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O287" s="2"/>
-      <c r="P287" s="2"/>
-      <c r="Q287" s="2"/>
-      <c r="R287" s="2"/>
-      <c r="S287" s="2"/>
-      <c r="T287" s="2"/>
-      <c r="U287" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V287" s="2"/>
+      <c r="N287" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O287" s="5"/>
+      <c r="P287" s="5"/>
+      <c r="Q287" s="5"/>
+      <c r="R287" s="5"/>
+      <c r="S287" s="5"/>
+      <c r="T287" s="5"/>
+      <c r="U287" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V287" s="5"/>
     </row>
     <row r="288" spans="1:22">
       <c r="A288" s="2" t="s">
@@ -20138,44 +20026,42 @@
       <c r="V290" s="2"/>
     </row>
     <row r="291" spans="1:22">
-      <c r="A291" s="2" t="s">
+      <c r="A291" s="5" t="s">
         <v>1217</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B291" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C291" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D291" s="2"/>
-      <c r="E291" s="2"/>
-      <c r="F291" s="2"/>
-      <c r="G291" s="2"/>
-      <c r="H291" s="2"/>
-      <c r="I291" s="2"/>
-      <c r="J291" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K291" s="2"/>
-      <c r="L291" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M291" s="2" t="s">
+      <c r="C291" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D291" s="5"/>
+      <c r="E291" s="5"/>
+      <c r="F291" s="5"/>
+      <c r="G291" s="5"/>
+      <c r="H291" s="5"/>
+      <c r="I291" s="5"/>
+      <c r="J291" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K291" s="5"/>
+      <c r="L291" s="7"/>
+      <c r="M291" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N291" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O291" s="2"/>
-      <c r="P291" s="2"/>
-      <c r="Q291" s="2"/>
-      <c r="R291" s="2"/>
-      <c r="S291" s="2"/>
-      <c r="T291" s="2"/>
-      <c r="U291" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V291" s="2"/>
+      <c r="N291" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O291" s="5"/>
+      <c r="P291" s="5"/>
+      <c r="Q291" s="5"/>
+      <c r="R291" s="5"/>
+      <c r="S291" s="5"/>
+      <c r="T291" s="5"/>
+      <c r="U291" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V291" s="5"/>
     </row>
     <row r="292" spans="1:22">
       <c r="A292" s="2" t="s">
@@ -20282,46 +20168,44 @@
       <c r="V293" s="2"/>
     </row>
     <row r="294" spans="1:22">
-      <c r="A294" s="2" t="s">
+      <c r="A294" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="B294" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C294" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D294" s="2"/>
-      <c r="E294" s="2"/>
-      <c r="F294" s="2"/>
-      <c r="G294" s="2"/>
-      <c r="H294" s="2"/>
-      <c r="I294" s="2"/>
-      <c r="J294" s="2" t="s">
+      <c r="C294" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D294" s="5"/>
+      <c r="E294" s="5"/>
+      <c r="F294" s="5"/>
+      <c r="G294" s="5"/>
+      <c r="H294" s="5"/>
+      <c r="I294" s="5"/>
+      <c r="J294" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="K294" s="2" t="s">
+      <c r="K294" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="L294" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M294" s="2" t="s">
+      <c r="L294" s="7"/>
+      <c r="M294" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N294" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O294" s="2"/>
-      <c r="P294" s="2"/>
-      <c r="Q294" s="2"/>
-      <c r="R294" s="2"/>
-      <c r="S294" s="2"/>
-      <c r="T294" s="2"/>
-      <c r="U294" s="2" t="s">
+      <c r="N294" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O294" s="5"/>
+      <c r="P294" s="5"/>
+      <c r="Q294" s="5"/>
+      <c r="R294" s="5"/>
+      <c r="S294" s="5"/>
+      <c r="T294" s="5"/>
+      <c r="U294" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="V294" s="2" t="s">
+      <c r="V294" s="5" t="s">
         <v>696</v>
       </c>
     </row>
@@ -20638,46 +20522,44 @@
       <c r="V300" s="2"/>
     </row>
     <row r="301" spans="1:22">
-      <c r="A301" s="2" t="s">
+      <c r="A301" s="5" t="s">
         <v>1226</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="B301" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C301" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D301" s="2"/>
-      <c r="E301" s="2"/>
-      <c r="F301" s="2"/>
-      <c r="G301" s="2"/>
-      <c r="H301" s="2"/>
-      <c r="I301" s="2"/>
-      <c r="J301" s="2" t="s">
+      <c r="C301" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D301" s="5"/>
+      <c r="E301" s="5"/>
+      <c r="F301" s="5"/>
+      <c r="G301" s="5"/>
+      <c r="H301" s="5"/>
+      <c r="I301" s="5"/>
+      <c r="J301" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="K301" s="2" t="s">
+      <c r="K301" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="L301" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M301" s="2" t="s">
+      <c r="L301" s="7"/>
+      <c r="M301" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N301" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O301" s="2"/>
-      <c r="P301" s="2"/>
-      <c r="Q301" s="2"/>
-      <c r="R301" s="2"/>
-      <c r="S301" s="2"/>
-      <c r="T301" s="2"/>
-      <c r="U301" s="2" t="s">
+      <c r="N301" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O301" s="5"/>
+      <c r="P301" s="5"/>
+      <c r="Q301" s="5"/>
+      <c r="R301" s="5"/>
+      <c r="S301" s="5"/>
+      <c r="T301" s="5"/>
+      <c r="U301" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="V301" s="2" t="s">
+      <c r="V301" s="5" t="s">
         <v>697</v>
       </c>
     </row>
@@ -20940,46 +20822,44 @@
       </c>
     </row>
     <row r="307" spans="1:22">
-      <c r="A307" s="2" t="s">
+      <c r="A307" s="5" t="s">
         <v>1231</v>
       </c>
-      <c r="B307" s="2" t="s">
+      <c r="B307" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C307" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D307" s="2"/>
-      <c r="E307" s="2"/>
-      <c r="F307" s="2"/>
-      <c r="G307" s="2"/>
-      <c r="H307" s="2"/>
-      <c r="I307" s="2"/>
-      <c r="J307" s="2" t="s">
+      <c r="C307" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D307" s="5"/>
+      <c r="E307" s="5"/>
+      <c r="F307" s="5"/>
+      <c r="G307" s="5"/>
+      <c r="H307" s="5"/>
+      <c r="I307" s="5"/>
+      <c r="J307" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="K307" s="2" t="s">
+      <c r="K307" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="L307" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M307" s="2" t="s">
+      <c r="L307" s="7"/>
+      <c r="M307" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="N307" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O307" s="2"/>
-      <c r="P307" s="2"/>
-      <c r="Q307" s="2"/>
-      <c r="R307" s="2"/>
-      <c r="S307" s="2"/>
-      <c r="T307" s="2"/>
-      <c r="U307" s="2" t="s">
+      <c r="N307" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O307" s="5"/>
+      <c r="P307" s="5"/>
+      <c r="Q307" s="5"/>
+      <c r="R307" s="5"/>
+      <c r="S307" s="5"/>
+      <c r="T307" s="5"/>
+      <c r="U307" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="V307" s="2" t="s">
+      <c r="V307" s="5" t="s">
         <v>698</v>
       </c>
     </row>
@@ -21454,44 +21334,42 @@
       <c r="V316" s="2"/>
     </row>
     <row r="317" spans="1:22">
-      <c r="A317" s="2" t="s">
+      <c r="A317" s="5" t="s">
         <v>1241</v>
       </c>
-      <c r="B317" s="2" t="s">
+      <c r="B317" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C317" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D317" s="2"/>
-      <c r="E317" s="2"/>
-      <c r="F317" s="2"/>
-      <c r="G317" s="2"/>
-      <c r="H317" s="2"/>
-      <c r="I317" s="2"/>
-      <c r="J317" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K317" s="2"/>
-      <c r="L317" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M317" s="2" t="s">
+      <c r="C317" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D317" s="5"/>
+      <c r="E317" s="5"/>
+      <c r="F317" s="5"/>
+      <c r="G317" s="5"/>
+      <c r="H317" s="5"/>
+      <c r="I317" s="5"/>
+      <c r="J317" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K317" s="5"/>
+      <c r="L317" s="7"/>
+      <c r="M317" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N317" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O317" s="2"/>
-      <c r="P317" s="2"/>
-      <c r="Q317" s="2"/>
-      <c r="R317" s="2"/>
-      <c r="S317" s="2"/>
-      <c r="T317" s="2"/>
-      <c r="U317" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V317" s="2"/>
+      <c r="N317" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O317" s="5"/>
+      <c r="P317" s="5"/>
+      <c r="Q317" s="5"/>
+      <c r="R317" s="5"/>
+      <c r="S317" s="5"/>
+      <c r="T317" s="5"/>
+      <c r="U317" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V317" s="5"/>
     </row>
     <row r="318" spans="1:22">
       <c r="A318" s="2" t="s">
@@ -21729,9 +21607,7 @@
         <v>611</v>
       </c>
       <c r="K322" s="2"/>
-      <c r="L322" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L322" s="7"/>
       <c r="M322" s="2" t="s">
         <v>77</v>
       </c>
@@ -21758,46 +21634,44 @@
       <c r="V322" s="2"/>
     </row>
     <row r="323" spans="1:22">
-      <c r="A323" s="2" t="s">
+      <c r="A323" s="5" t="s">
         <v>1247</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="B323" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C323" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D323" s="2"/>
-      <c r="E323" s="2"/>
-      <c r="F323" s="2"/>
-      <c r="G323" s="2"/>
-      <c r="H323" s="2"/>
-      <c r="I323" s="2"/>
-      <c r="J323" s="2" t="s">
+      <c r="C323" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D323" s="5"/>
+      <c r="E323" s="5"/>
+      <c r="F323" s="5"/>
+      <c r="G323" s="5"/>
+      <c r="H323" s="5"/>
+      <c r="I323" s="5"/>
+      <c r="J323" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="K323" s="2" t="s">
+      <c r="K323" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="L323" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M323" s="2" t="s">
+      <c r="L323" s="7"/>
+      <c r="M323" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="N323" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O323" s="2"/>
-      <c r="P323" s="2"/>
-      <c r="Q323" s="2"/>
-      <c r="R323" s="2"/>
-      <c r="S323" s="2"/>
-      <c r="T323" s="2"/>
-      <c r="U323" s="2" t="s">
+      <c r="N323" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O323" s="5"/>
+      <c r="P323" s="5"/>
+      <c r="Q323" s="5"/>
+      <c r="R323" s="5"/>
+      <c r="S323" s="5"/>
+      <c r="T323" s="5"/>
+      <c r="U323" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="V323" s="2" t="s">
+      <c r="V323" s="5" t="s">
         <v>700</v>
       </c>
     </row>
@@ -22812,46 +22686,44 @@
       </c>
     </row>
     <row r="344" spans="1:22">
-      <c r="A344" s="2" t="s">
+      <c r="A344" s="5" t="s">
         <v>1268</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B344" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C344" s="2" t="s">
+      <c r="C344" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D344" s="2"/>
-      <c r="E344" s="2"/>
-      <c r="F344" s="2"/>
-      <c r="G344" s="2"/>
-      <c r="H344" s="2"/>
-      <c r="I344" s="2"/>
-      <c r="J344" s="2" t="s">
+      <c r="D344" s="5"/>
+      <c r="E344" s="5"/>
+      <c r="F344" s="5"/>
+      <c r="G344" s="5"/>
+      <c r="H344" s="5"/>
+      <c r="I344" s="5"/>
+      <c r="J344" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="K344" s="2" t="s">
+      <c r="K344" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="L344" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M344" s="2" t="s">
+      <c r="L344" s="7"/>
+      <c r="M344" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="N344" s="2" t="s">
+      <c r="N344" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="O344" s="2"/>
-      <c r="P344" s="2"/>
-      <c r="Q344" s="2"/>
-      <c r="R344" s="2"/>
-      <c r="S344" s="2"/>
-      <c r="T344" s="2"/>
-      <c r="U344" s="2" t="s">
+      <c r="O344" s="5"/>
+      <c r="P344" s="5"/>
+      <c r="Q344" s="5"/>
+      <c r="R344" s="5"/>
+      <c r="S344" s="5"/>
+      <c r="T344" s="5"/>
+      <c r="U344" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="V344" s="2" t="s">
+      <c r="V344" s="5" t="s">
         <v>705</v>
       </c>
     </row>
@@ -23072,46 +22944,44 @@
       <c r="V348" s="2"/>
     </row>
     <row r="349" spans="1:22">
-      <c r="A349" s="2" t="s">
+      <c r="A349" s="5" t="s">
         <v>1273</v>
       </c>
-      <c r="B349" s="2" t="s">
+      <c r="B349" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C349" s="2" t="s">
+      <c r="C349" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D349" s="2"/>
-      <c r="E349" s="2"/>
-      <c r="F349" s="2"/>
-      <c r="G349" s="2"/>
-      <c r="H349" s="2"/>
-      <c r="I349" s="2"/>
-      <c r="J349" s="2" t="s">
+      <c r="D349" s="5"/>
+      <c r="E349" s="5"/>
+      <c r="F349" s="5"/>
+      <c r="G349" s="5"/>
+      <c r="H349" s="5"/>
+      <c r="I349" s="5"/>
+      <c r="J349" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="K349" s="2" t="s">
+      <c r="K349" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="L349" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M349" s="2" t="s">
+      <c r="L349" s="7"/>
+      <c r="M349" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="N349" s="2" t="s">
+      <c r="N349" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="O349" s="2"/>
-      <c r="P349" s="2"/>
-      <c r="Q349" s="2"/>
-      <c r="R349" s="2"/>
-      <c r="S349" s="2"/>
-      <c r="T349" s="2"/>
-      <c r="U349" s="2" t="s">
+      <c r="O349" s="5"/>
+      <c r="P349" s="5"/>
+      <c r="Q349" s="5"/>
+      <c r="R349" s="5"/>
+      <c r="S349" s="5"/>
+      <c r="T349" s="5"/>
+      <c r="U349" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="V349" s="2" t="s">
+      <c r="V349" s="5" t="s">
         <v>706</v>
       </c>
     </row>
@@ -23332,46 +23202,44 @@
       <c r="V353" s="2"/>
     </row>
     <row r="354" spans="1:22">
-      <c r="A354" s="2" t="s">
+      <c r="A354" s="5" t="s">
         <v>1278</v>
       </c>
-      <c r="B354" s="2" t="s">
+      <c r="B354" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C354" s="2" t="s">
+      <c r="C354" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D354" s="2"/>
-      <c r="E354" s="2"/>
-      <c r="F354" s="2"/>
-      <c r="G354" s="2"/>
-      <c r="H354" s="2"/>
-      <c r="I354" s="2"/>
-      <c r="J354" s="2" t="s">
+      <c r="D354" s="5"/>
+      <c r="E354" s="5"/>
+      <c r="F354" s="5"/>
+      <c r="G354" s="5"/>
+      <c r="H354" s="5"/>
+      <c r="I354" s="5"/>
+      <c r="J354" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="K354" s="2" t="s">
+      <c r="K354" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="L354" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M354" s="2" t="s">
+      <c r="L354" s="7"/>
+      <c r="M354" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="N354" s="2" t="s">
+      <c r="N354" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="O354" s="2"/>
-      <c r="P354" s="2"/>
-      <c r="Q354" s="2"/>
-      <c r="R354" s="2"/>
-      <c r="S354" s="2"/>
-      <c r="T354" s="2"/>
-      <c r="U354" s="2" t="s">
+      <c r="O354" s="5"/>
+      <c r="P354" s="5"/>
+      <c r="Q354" s="5"/>
+      <c r="R354" s="5"/>
+      <c r="S354" s="5"/>
+      <c r="T354" s="5"/>
+      <c r="U354" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="V354" s="2" t="s">
+      <c r="V354" s="5" t="s">
         <v>705</v>
       </c>
     </row>
@@ -23592,44 +23460,42 @@
       <c r="V358" s="2"/>
     </row>
     <row r="359" spans="1:22">
-      <c r="A359" s="2" t="s">
+      <c r="A359" s="5" t="s">
         <v>1283</v>
       </c>
-      <c r="B359" s="2" t="s">
+      <c r="B359" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C359" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D359" s="2"/>
-      <c r="E359" s="2"/>
-      <c r="F359" s="2"/>
-      <c r="G359" s="2"/>
-      <c r="H359" s="2"/>
-      <c r="I359" s="2"/>
-      <c r="J359" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K359" s="2"/>
-      <c r="L359" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M359" s="2" t="s">
+      <c r="C359" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D359" s="5"/>
+      <c r="E359" s="5"/>
+      <c r="F359" s="5"/>
+      <c r="G359" s="5"/>
+      <c r="H359" s="5"/>
+      <c r="I359" s="5"/>
+      <c r="J359" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K359" s="5"/>
+      <c r="L359" s="7"/>
+      <c r="M359" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="N359" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O359" s="2"/>
-      <c r="P359" s="2"/>
-      <c r="Q359" s="2"/>
-      <c r="R359" s="2"/>
-      <c r="S359" s="2"/>
-      <c r="T359" s="2"/>
-      <c r="U359" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V359" s="2"/>
+      <c r="N359" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O359" s="5"/>
+      <c r="P359" s="5"/>
+      <c r="Q359" s="5"/>
+      <c r="R359" s="5"/>
+      <c r="S359" s="5"/>
+      <c r="T359" s="5"/>
+      <c r="U359" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V359" s="5"/>
     </row>
     <row r="360" spans="1:22">
       <c r="A360" s="2" t="s">
@@ -23863,9 +23729,7 @@
         <v>542</v>
       </c>
       <c r="K364" s="2"/>
-      <c r="L364" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L364" s="7"/>
       <c r="M364" s="2" t="s">
         <v>96</v>
       </c>
@@ -23919,9 +23783,7 @@
         <v>542</v>
       </c>
       <c r="K365" s="2"/>
-      <c r="L365" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L365" s="7"/>
       <c r="M365" s="2" t="s">
         <v>96</v>
       </c>
@@ -23975,9 +23837,7 @@
         <v>542</v>
       </c>
       <c r="K366" s="2"/>
-      <c r="L366" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L366" s="7"/>
       <c r="M366" s="2" t="s">
         <v>96</v>
       </c>
@@ -24031,9 +23891,7 @@
         <v>542</v>
       </c>
       <c r="K367" s="2"/>
-      <c r="L367" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L367" s="7"/>
       <c r="M367" s="2" t="s">
         <v>96</v>
       </c>
@@ -24195,9 +24053,7 @@
         <v>542</v>
       </c>
       <c r="K370" s="2"/>
-      <c r="L370" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L370" s="7"/>
       <c r="M370" s="2" t="s">
         <v>97</v>
       </c>
@@ -24251,9 +24107,7 @@
         <v>542</v>
       </c>
       <c r="K371" s="2"/>
-      <c r="L371" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L371" s="7"/>
       <c r="M371" s="2" t="s">
         <v>97</v>
       </c>
@@ -24307,9 +24161,7 @@
         <v>542</v>
       </c>
       <c r="K372" s="2"/>
-      <c r="L372" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L372" s="7"/>
       <c r="M372" s="2" t="s">
         <v>97</v>
       </c>
@@ -24336,46 +24188,44 @@
       <c r="V372" s="2"/>
     </row>
     <row r="373" spans="1:22">
-      <c r="A373" s="2" t="s">
+      <c r="A373" s="5" t="s">
         <v>1297</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B373" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C373" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D373" s="2"/>
-      <c r="E373" s="2"/>
-      <c r="F373" s="2"/>
-      <c r="G373" s="2"/>
-      <c r="H373" s="2"/>
-      <c r="I373" s="2"/>
-      <c r="J373" s="2" t="s">
+      <c r="C373" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D373" s="5"/>
+      <c r="E373" s="5"/>
+      <c r="F373" s="5"/>
+      <c r="G373" s="5"/>
+      <c r="H373" s="5"/>
+      <c r="I373" s="5"/>
+      <c r="J373" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="K373" s="2" t="s">
+      <c r="K373" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="L373" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M373" s="2" t="s">
+      <c r="L373" s="7"/>
+      <c r="M373" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="N373" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O373" s="2"/>
-      <c r="P373" s="2"/>
-      <c r="Q373" s="2"/>
-      <c r="R373" s="2"/>
-      <c r="S373" s="2"/>
-      <c r="T373" s="2"/>
-      <c r="U373" s="2" t="s">
+      <c r="N373" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O373" s="5"/>
+      <c r="P373" s="5"/>
+      <c r="Q373" s="5"/>
+      <c r="R373" s="5"/>
+      <c r="S373" s="5"/>
+      <c r="T373" s="5"/>
+      <c r="U373" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="V373" s="2" t="s">
+      <c r="V373" s="5" t="s">
         <v>708</v>
       </c>
     </row>
@@ -24642,44 +24492,42 @@
       </c>
     </row>
     <row r="379" spans="1:22">
-      <c r="A379" s="2" t="s">
+      <c r="A379" s="5" t="s">
         <v>1303</v>
       </c>
-      <c r="B379" s="2" t="s">
+      <c r="B379" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C379" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D379" s="2"/>
-      <c r="E379" s="2"/>
-      <c r="F379" s="2"/>
-      <c r="G379" s="2"/>
-      <c r="H379" s="2"/>
-      <c r="I379" s="2"/>
-      <c r="J379" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K379" s="2"/>
-      <c r="L379" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M379" s="2" t="s">
+      <c r="C379" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D379" s="5"/>
+      <c r="E379" s="5"/>
+      <c r="F379" s="5"/>
+      <c r="G379" s="5"/>
+      <c r="H379" s="5"/>
+      <c r="I379" s="5"/>
+      <c r="J379" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K379" s="5"/>
+      <c r="L379" s="7"/>
+      <c r="M379" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N379" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O379" s="2"/>
-      <c r="P379" s="2"/>
-      <c r="Q379" s="2"/>
-      <c r="R379" s="2"/>
-      <c r="S379" s="2"/>
-      <c r="T379" s="2"/>
-      <c r="U379" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V379" s="2"/>
+      <c r="N379" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O379" s="5"/>
+      <c r="P379" s="5"/>
+      <c r="Q379" s="5"/>
+      <c r="R379" s="5"/>
+      <c r="S379" s="5"/>
+      <c r="T379" s="5"/>
+      <c r="U379" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V379" s="5"/>
     </row>
     <row r="380" spans="1:22">
       <c r="A380" s="2" t="s">
@@ -24967,9 +24815,7 @@
         <v>542</v>
       </c>
       <c r="K385" s="2"/>
-      <c r="L385" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L385" s="7"/>
       <c r="M385" s="2" t="s">
         <v>100</v>
       </c>
@@ -24996,44 +24842,42 @@
       <c r="V385" s="2"/>
     </row>
     <row r="386" spans="1:22">
-      <c r="A386" s="2" t="s">
+      <c r="A386" s="5" t="s">
         <v>1310</v>
       </c>
-      <c r="B386" s="2" t="s">
+      <c r="B386" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C386" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D386" s="2"/>
-      <c r="E386" s="2"/>
-      <c r="F386" s="2"/>
-      <c r="G386" s="2"/>
-      <c r="H386" s="2"/>
-      <c r="I386" s="2"/>
-      <c r="J386" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K386" s="2"/>
-      <c r="L386" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M386" s="2" t="s">
+      <c r="C386" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D386" s="5"/>
+      <c r="E386" s="5"/>
+      <c r="F386" s="5"/>
+      <c r="G386" s="5"/>
+      <c r="H386" s="5"/>
+      <c r="I386" s="5"/>
+      <c r="J386" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K386" s="5"/>
+      <c r="L386" s="7"/>
+      <c r="M386" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N386" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O386" s="2"/>
-      <c r="P386" s="2"/>
-      <c r="Q386" s="2"/>
-      <c r="R386" s="2"/>
-      <c r="S386" s="2"/>
-      <c r="T386" s="2"/>
-      <c r="U386" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V386" s="2"/>
+      <c r="N386" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O386" s="5"/>
+      <c r="P386" s="5"/>
+      <c r="Q386" s="5"/>
+      <c r="R386" s="5"/>
+      <c r="S386" s="5"/>
+      <c r="T386" s="5"/>
+      <c r="U386" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V386" s="5"/>
     </row>
     <row r="387" spans="1:22">
       <c r="A387" s="2" t="s">
@@ -25426,46 +25270,44 @@
       <c r="V394" s="9"/>
     </row>
     <row r="395" spans="1:22">
-      <c r="A395" s="2" t="s">
+      <c r="A395" s="5" t="s">
         <v>1319</v>
       </c>
-      <c r="B395" s="2" t="s">
+      <c r="B395" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C395" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D395" s="2"/>
-      <c r="E395" s="2"/>
-      <c r="F395" s="2"/>
-      <c r="G395" s="2"/>
-      <c r="H395" s="2"/>
-      <c r="I395" s="2"/>
-      <c r="J395" s="2" t="s">
+      <c r="C395" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D395" s="5"/>
+      <c r="E395" s="5"/>
+      <c r="F395" s="5"/>
+      <c r="G395" s="5"/>
+      <c r="H395" s="5"/>
+      <c r="I395" s="5"/>
+      <c r="J395" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="K395" s="2" t="s">
+      <c r="K395" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="L395" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M395" s="2" t="s">
+      <c r="L395" s="7"/>
+      <c r="M395" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="N395" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O395" s="2"/>
-      <c r="P395" s="2"/>
-      <c r="Q395" s="2"/>
-      <c r="R395" s="2"/>
-      <c r="S395" s="2"/>
-      <c r="T395" s="2"/>
-      <c r="U395" s="2" t="s">
+      <c r="N395" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O395" s="5"/>
+      <c r="P395" s="5"/>
+      <c r="Q395" s="5"/>
+      <c r="R395" s="5"/>
+      <c r="S395" s="5"/>
+      <c r="T395" s="5"/>
+      <c r="U395" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="V395" s="2" t="s">
+      <c r="V395" s="5" t="s">
         <v>709</v>
       </c>
     </row>
@@ -25940,44 +25782,42 @@
       <c r="V404" s="2"/>
     </row>
     <row r="405" spans="1:22">
-      <c r="A405" s="2" t="s">
+      <c r="A405" s="5" t="s">
         <v>1329</v>
       </c>
-      <c r="B405" s="2" t="s">
+      <c r="B405" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C405" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D405" s="2"/>
-      <c r="E405" s="2"/>
-      <c r="F405" s="2"/>
-      <c r="G405" s="2"/>
-      <c r="H405" s="2"/>
-      <c r="I405" s="2"/>
-      <c r="J405" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K405" s="2"/>
-      <c r="L405" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M405" s="2" t="s">
+      <c r="C405" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D405" s="5"/>
+      <c r="E405" s="5"/>
+      <c r="F405" s="5"/>
+      <c r="G405" s="5"/>
+      <c r="H405" s="5"/>
+      <c r="I405" s="5"/>
+      <c r="J405" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K405" s="5"/>
+      <c r="L405" s="7"/>
+      <c r="M405" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N405" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O405" s="2"/>
-      <c r="P405" s="2"/>
-      <c r="Q405" s="2"/>
-      <c r="R405" s="2"/>
-      <c r="S405" s="2"/>
-      <c r="T405" s="2"/>
-      <c r="U405" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V405" s="2"/>
+      <c r="N405" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O405" s="5"/>
+      <c r="P405" s="5"/>
+      <c r="Q405" s="5"/>
+      <c r="R405" s="5"/>
+      <c r="S405" s="5"/>
+      <c r="T405" s="5"/>
+      <c r="U405" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V405" s="5"/>
     </row>
     <row r="406" spans="1:22">
       <c r="A406" s="2" t="s">
@@ -26134,44 +25974,42 @@
       <c r="V408" s="2"/>
     </row>
     <row r="409" spans="1:22">
-      <c r="A409" s="2" t="s">
+      <c r="A409" s="5" t="s">
         <v>1333</v>
       </c>
-      <c r="B409" s="2" t="s">
+      <c r="B409" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C409" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D409" s="2"/>
-      <c r="E409" s="2"/>
-      <c r="F409" s="2"/>
-      <c r="G409" s="2"/>
-      <c r="H409" s="2"/>
-      <c r="I409" s="2"/>
-      <c r="J409" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K409" s="2"/>
-      <c r="L409" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M409" s="2" t="s">
+      <c r="C409" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D409" s="5"/>
+      <c r="E409" s="5"/>
+      <c r="F409" s="5"/>
+      <c r="G409" s="5"/>
+      <c r="H409" s="5"/>
+      <c r="I409" s="5"/>
+      <c r="J409" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K409" s="5"/>
+      <c r="L409" s="7"/>
+      <c r="M409" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N409" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O409" s="2"/>
-      <c r="P409" s="2"/>
-      <c r="Q409" s="2"/>
-      <c r="R409" s="2"/>
-      <c r="S409" s="2"/>
-      <c r="T409" s="2"/>
-      <c r="U409" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V409" s="2"/>
+      <c r="N409" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O409" s="5"/>
+      <c r="P409" s="5"/>
+      <c r="Q409" s="5"/>
+      <c r="R409" s="5"/>
+      <c r="S409" s="5"/>
+      <c r="T409" s="5"/>
+      <c r="U409" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V409" s="5"/>
     </row>
     <row r="410" spans="1:22">
       <c r="A410" s="2" t="s">
@@ -26409,9 +26247,7 @@
         <v>542</v>
       </c>
       <c r="K414" s="2"/>
-      <c r="L414" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L414" s="7"/>
       <c r="M414" s="2" t="s">
         <v>54</v>
       </c>
@@ -26492,44 +26328,42 @@
       <c r="V415" s="2"/>
     </row>
     <row r="416" spans="1:22">
-      <c r="A416" s="2" t="s">
+      <c r="A416" s="5" t="s">
         <v>1340</v>
       </c>
-      <c r="B416" s="2" t="s">
+      <c r="B416" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C416" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D416" s="2"/>
-      <c r="E416" s="2"/>
-      <c r="F416" s="2"/>
-      <c r="G416" s="2"/>
-      <c r="H416" s="2"/>
-      <c r="I416" s="2"/>
-      <c r="J416" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K416" s="2"/>
-      <c r="L416" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M416" s="2" t="s">
+      <c r="C416" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D416" s="5"/>
+      <c r="E416" s="5"/>
+      <c r="F416" s="5"/>
+      <c r="G416" s="5"/>
+      <c r="H416" s="5"/>
+      <c r="I416" s="5"/>
+      <c r="J416" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K416" s="5"/>
+      <c r="L416" s="7"/>
+      <c r="M416" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N416" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O416" s="2"/>
-      <c r="P416" s="2"/>
-      <c r="Q416" s="2"/>
-      <c r="R416" s="2"/>
-      <c r="S416" s="2"/>
-      <c r="T416" s="2"/>
-      <c r="U416" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V416" s="2"/>
+      <c r="N416" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O416" s="5"/>
+      <c r="P416" s="5"/>
+      <c r="Q416" s="5"/>
+      <c r="R416" s="5"/>
+      <c r="S416" s="5"/>
+      <c r="T416" s="5"/>
+      <c r="U416" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V416" s="5"/>
     </row>
     <row r="417" spans="1:22">
       <c r="A417" s="2" t="s">
@@ -26636,46 +26470,44 @@
       <c r="V418" s="2"/>
     </row>
     <row r="419" spans="1:22">
-      <c r="A419" s="2" t="s">
+      <c r="A419" s="5" t="s">
         <v>1343</v>
       </c>
-      <c r="B419" s="2" t="s">
+      <c r="B419" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C419" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D419" s="2"/>
-      <c r="E419" s="2"/>
-      <c r="F419" s="2"/>
-      <c r="G419" s="2"/>
-      <c r="H419" s="2"/>
-      <c r="I419" s="2"/>
-      <c r="J419" s="2" t="s">
+      <c r="C419" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D419" s="5"/>
+      <c r="E419" s="5"/>
+      <c r="F419" s="5"/>
+      <c r="G419" s="5"/>
+      <c r="H419" s="5"/>
+      <c r="I419" s="5"/>
+      <c r="J419" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="K419" s="2" t="s">
+      <c r="K419" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="L419" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M419" s="2" t="s">
+      <c r="L419" s="7"/>
+      <c r="M419" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="N419" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O419" s="2"/>
-      <c r="P419" s="2"/>
-      <c r="Q419" s="2"/>
-      <c r="R419" s="2"/>
-      <c r="S419" s="2"/>
-      <c r="T419" s="2"/>
-      <c r="U419" s="2" t="s">
+      <c r="N419" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O419" s="5"/>
+      <c r="P419" s="5"/>
+      <c r="Q419" s="5"/>
+      <c r="R419" s="5"/>
+      <c r="S419" s="5"/>
+      <c r="T419" s="5"/>
+      <c r="U419" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="V419" s="2" t="s">
+      <c r="V419" s="5" t="s">
         <v>710</v>
       </c>
     </row>
@@ -27100,44 +26932,42 @@
       <c r="V427" s="2"/>
     </row>
     <row r="428" spans="1:22">
-      <c r="A428" s="2" t="s">
+      <c r="A428" s="5" t="s">
         <v>1352</v>
       </c>
-      <c r="B428" s="2" t="s">
+      <c r="B428" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C428" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D428" s="2"/>
-      <c r="E428" s="2"/>
-      <c r="F428" s="2"/>
-      <c r="G428" s="2"/>
-      <c r="H428" s="2"/>
-      <c r="I428" s="2"/>
-      <c r="J428" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K428" s="2"/>
-      <c r="L428" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M428" s="2" t="s">
+      <c r="C428" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D428" s="5"/>
+      <c r="E428" s="5"/>
+      <c r="F428" s="5"/>
+      <c r="G428" s="5"/>
+      <c r="H428" s="5"/>
+      <c r="I428" s="5"/>
+      <c r="J428" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K428" s="5"/>
+      <c r="L428" s="7"/>
+      <c r="M428" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N428" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O428" s="2"/>
-      <c r="P428" s="2"/>
-      <c r="Q428" s="2"/>
-      <c r="R428" s="2"/>
-      <c r="S428" s="2"/>
-      <c r="T428" s="2"/>
-      <c r="U428" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V428" s="2"/>
+      <c r="N428" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O428" s="5"/>
+      <c r="P428" s="5"/>
+      <c r="Q428" s="5"/>
+      <c r="R428" s="5"/>
+      <c r="S428" s="5"/>
+      <c r="T428" s="5"/>
+      <c r="U428" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V428" s="5"/>
     </row>
     <row r="429" spans="1:22">
       <c r="A429" s="2" t="s">
@@ -27487,9 +27317,7 @@
         <v>542</v>
       </c>
       <c r="K435" s="2"/>
-      <c r="L435" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L435" s="7"/>
       <c r="M435" s="2" t="s">
         <v>51</v>
       </c>
@@ -27802,44 +27630,42 @@
       <c r="V441" s="2"/>
     </row>
     <row r="442" spans="1:22">
-      <c r="A442" s="2" t="s">
+      <c r="A442" s="5" t="s">
         <v>1366</v>
       </c>
-      <c r="B442" s="2" t="s">
+      <c r="B442" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C442" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D442" s="2"/>
-      <c r="E442" s="2"/>
-      <c r="F442" s="2"/>
-      <c r="G442" s="2"/>
-      <c r="H442" s="2"/>
-      <c r="I442" s="2"/>
-      <c r="J442" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K442" s="2"/>
-      <c r="L442" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M442" s="2" t="s">
+      <c r="C442" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D442" s="5"/>
+      <c r="E442" s="5"/>
+      <c r="F442" s="5"/>
+      <c r="G442" s="5"/>
+      <c r="H442" s="5"/>
+      <c r="I442" s="5"/>
+      <c r="J442" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K442" s="5"/>
+      <c r="L442" s="7"/>
+      <c r="M442" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="N442" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O442" s="2"/>
-      <c r="P442" s="2"/>
-      <c r="Q442" s="2"/>
-      <c r="R442" s="2"/>
-      <c r="S442" s="2"/>
-      <c r="T442" s="2"/>
-      <c r="U442" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V442" s="2"/>
+      <c r="N442" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O442" s="5"/>
+      <c r="P442" s="5"/>
+      <c r="Q442" s="5"/>
+      <c r="R442" s="5"/>
+      <c r="S442" s="5"/>
+      <c r="T442" s="5"/>
+      <c r="U442" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V442" s="5"/>
     </row>
     <row r="443" spans="1:22">
       <c r="A443" s="2" t="s">
@@ -28077,9 +27903,7 @@
         <v>542</v>
       </c>
       <c r="K447" s="2"/>
-      <c r="L447" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L447" s="7"/>
       <c r="M447" s="2" t="s">
         <v>106</v>
       </c>
@@ -28133,9 +27957,7 @@
         <v>542</v>
       </c>
       <c r="K448" s="2"/>
-      <c r="L448" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L448" s="7"/>
       <c r="M448" s="2" t="s">
         <v>106</v>
       </c>
@@ -28189,9 +28011,7 @@
         <v>542</v>
       </c>
       <c r="K449" s="2"/>
-      <c r="L449" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L449" s="7"/>
       <c r="M449" s="2" t="s">
         <v>106</v>
       </c>
@@ -28218,46 +28038,44 @@
       <c r="V449" s="2"/>
     </row>
     <row r="450" spans="1:22">
-      <c r="A450" s="2" t="s">
+      <c r="A450" s="5" t="s">
         <v>1374</v>
       </c>
-      <c r="B450" s="2" t="s">
+      <c r="B450" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C450" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D450" s="2"/>
-      <c r="E450" s="2"/>
-      <c r="F450" s="2"/>
-      <c r="G450" s="2"/>
-      <c r="H450" s="2"/>
-      <c r="I450" s="2"/>
-      <c r="J450" s="2" t="s">
+      <c r="C450" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D450" s="5"/>
+      <c r="E450" s="5"/>
+      <c r="F450" s="5"/>
+      <c r="G450" s="5"/>
+      <c r="H450" s="5"/>
+      <c r="I450" s="5"/>
+      <c r="J450" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="K450" s="2" t="s">
+      <c r="K450" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="L450" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M450" s="2" t="s">
+      <c r="L450" s="7"/>
+      <c r="M450" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="N450" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O450" s="2"/>
-      <c r="P450" s="2"/>
-      <c r="Q450" s="2"/>
-      <c r="R450" s="2"/>
-      <c r="S450" s="2"/>
-      <c r="T450" s="2"/>
-      <c r="U450" s="2" t="s">
+      <c r="N450" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O450" s="5"/>
+      <c r="P450" s="5"/>
+      <c r="Q450" s="5"/>
+      <c r="R450" s="5"/>
+      <c r="S450" s="5"/>
+      <c r="T450" s="5"/>
+      <c r="U450" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="V450" s="2" t="s">
+      <c r="V450" s="5" t="s">
         <v>712</v>
       </c>
     </row>
@@ -28682,44 +28500,42 @@
       <c r="V458" s="2"/>
     </row>
     <row r="459" spans="1:22">
-      <c r="A459" s="2" t="s">
+      <c r="A459" s="5" t="s">
         <v>1383</v>
       </c>
-      <c r="B459" s="2" t="s">
+      <c r="B459" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C459" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D459" s="2"/>
-      <c r="E459" s="2"/>
-      <c r="F459" s="2"/>
-      <c r="G459" s="2"/>
-      <c r="H459" s="2"/>
-      <c r="I459" s="2"/>
-      <c r="J459" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K459" s="2"/>
-      <c r="L459" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M459" s="2" t="s">
+      <c r="C459" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D459" s="5"/>
+      <c r="E459" s="5"/>
+      <c r="F459" s="5"/>
+      <c r="G459" s="5"/>
+      <c r="H459" s="5"/>
+      <c r="I459" s="5"/>
+      <c r="J459" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K459" s="5"/>
+      <c r="L459" s="7"/>
+      <c r="M459" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="N459" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O459" s="2"/>
-      <c r="P459" s="2"/>
-      <c r="Q459" s="2"/>
-      <c r="R459" s="2"/>
-      <c r="S459" s="2"/>
-      <c r="T459" s="2"/>
-      <c r="U459" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V459" s="2"/>
+      <c r="N459" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O459" s="5"/>
+      <c r="P459" s="5"/>
+      <c r="Q459" s="5"/>
+      <c r="R459" s="5"/>
+      <c r="S459" s="5"/>
+      <c r="T459" s="5"/>
+      <c r="U459" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V459" s="5"/>
     </row>
     <row r="460" spans="1:22">
       <c r="A460" s="2" t="s">
@@ -28957,9 +28773,7 @@
         <v>542</v>
       </c>
       <c r="K464" s="2"/>
-      <c r="L464" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L464" s="7"/>
       <c r="M464" s="2" t="s">
         <v>110</v>
       </c>
@@ -29013,9 +28827,7 @@
         <v>542</v>
       </c>
       <c r="K465" s="2"/>
-      <c r="L465" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L465" s="7"/>
       <c r="M465" s="2" t="s">
         <v>110</v>
       </c>
@@ -29069,9 +28881,7 @@
         <v>542</v>
       </c>
       <c r="K466" s="2"/>
-      <c r="L466" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L466" s="7"/>
       <c r="M466" s="2" t="s">
         <v>110</v>
       </c>
@@ -29125,9 +28935,7 @@
         <v>542</v>
       </c>
       <c r="K467" s="2"/>
-      <c r="L467" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L467" s="7"/>
       <c r="M467" s="2" t="s">
         <v>110</v>
       </c>
@@ -29181,9 +28989,7 @@
         <v>542</v>
       </c>
       <c r="K468" s="2"/>
-      <c r="L468" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L468" s="7"/>
       <c r="M468" s="2" t="s">
         <v>110</v>
       </c>
@@ -29237,9 +29043,7 @@
         <v>542</v>
       </c>
       <c r="K469" s="2"/>
-      <c r="L469" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L469" s="7"/>
       <c r="M469" s="2" t="s">
         <v>110</v>
       </c>
@@ -29351,9 +29155,7 @@
         <v>629</v>
       </c>
       <c r="K471" s="2"/>
-      <c r="L471" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L471" s="7"/>
       <c r="M471" s="2" t="s">
         <v>110</v>
       </c>
@@ -29407,9 +29209,7 @@
         <v>629</v>
       </c>
       <c r="K472" s="2"/>
-      <c r="L472" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L472" s="7"/>
       <c r="M472" s="2" t="s">
         <v>110</v>
       </c>
@@ -29463,9 +29263,7 @@
         <v>630</v>
       </c>
       <c r="K473" s="2"/>
-      <c r="L473" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L473" s="7"/>
       <c r="M473" s="2" t="s">
         <v>110</v>
       </c>
@@ -29521,9 +29319,7 @@
       <c r="K474" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="L474" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L474" s="7"/>
       <c r="M474" s="2" t="s">
         <v>110</v>
       </c>
@@ -29845,9 +29641,7 @@
         <v>542</v>
       </c>
       <c r="K480" s="2"/>
-      <c r="L480" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L480" s="7"/>
       <c r="M480" s="2" t="s">
         <v>112</v>
       </c>
@@ -29901,9 +29695,7 @@
         <v>542</v>
       </c>
       <c r="K481" s="2"/>
-      <c r="L481" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L481" s="7"/>
       <c r="M481" s="2" t="s">
         <v>112</v>
       </c>
@@ -30061,9 +29853,7 @@
         <v>542</v>
       </c>
       <c r="K484" s="2"/>
-      <c r="L484" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L484" s="7"/>
       <c r="M484" s="2" t="s">
         <v>113</v>
       </c>
@@ -30279,9 +30069,7 @@
         <v>542</v>
       </c>
       <c r="K488" s="2"/>
-      <c r="L488" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L488" s="7"/>
       <c r="M488" s="2" t="s">
         <v>114</v>
       </c>
@@ -30308,46 +30096,44 @@
       <c r="V488" s="2"/>
     </row>
     <row r="489" spans="1:22">
-      <c r="A489" s="2" t="s">
+      <c r="A489" s="5" t="s">
         <v>1413</v>
       </c>
-      <c r="B489" s="2" t="s">
+      <c r="B489" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C489" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D489" s="2"/>
-      <c r="E489" s="2"/>
-      <c r="F489" s="2"/>
-      <c r="G489" s="2"/>
-      <c r="H489" s="2"/>
-      <c r="I489" s="2"/>
-      <c r="J489" s="2" t="s">
+      <c r="C489" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D489" s="5"/>
+      <c r="E489" s="5"/>
+      <c r="F489" s="5"/>
+      <c r="G489" s="5"/>
+      <c r="H489" s="5"/>
+      <c r="I489" s="5"/>
+      <c r="J489" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="K489" s="2" t="s">
+      <c r="K489" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="L489" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M489" s="2" t="s">
+      <c r="L489" s="7"/>
+      <c r="M489" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="N489" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O489" s="2"/>
-      <c r="P489" s="2"/>
-      <c r="Q489" s="2"/>
-      <c r="R489" s="2"/>
-      <c r="S489" s="2"/>
-      <c r="T489" s="2"/>
-      <c r="U489" s="2" t="s">
+      <c r="N489" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O489" s="5"/>
+      <c r="P489" s="5"/>
+      <c r="Q489" s="5"/>
+      <c r="R489" s="5"/>
+      <c r="S489" s="5"/>
+      <c r="T489" s="5"/>
+      <c r="U489" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="V489" s="2" t="s">
+      <c r="V489" s="5" t="s">
         <v>716</v>
       </c>
     </row>
@@ -30587,9 +30373,7 @@
         <v>542</v>
       </c>
       <c r="K494" s="2"/>
-      <c r="L494" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L494" s="7"/>
       <c r="M494" s="2" t="s">
         <v>115</v>
       </c>
@@ -30616,46 +30400,44 @@
       <c r="V494" s="2"/>
     </row>
     <row r="495" spans="1:22">
-      <c r="A495" s="2" t="s">
+      <c r="A495" s="5" t="s">
         <v>1419</v>
       </c>
-      <c r="B495" s="2" t="s">
+      <c r="B495" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C495" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D495" s="2"/>
-      <c r="E495" s="2"/>
-      <c r="F495" s="2"/>
-      <c r="G495" s="2"/>
-      <c r="H495" s="2"/>
-      <c r="I495" s="2"/>
-      <c r="J495" s="2" t="s">
+      <c r="C495" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D495" s="5"/>
+      <c r="E495" s="5"/>
+      <c r="F495" s="5"/>
+      <c r="G495" s="5"/>
+      <c r="H495" s="5"/>
+      <c r="I495" s="5"/>
+      <c r="J495" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="K495" s="2" t="s">
+      <c r="K495" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="L495" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M495" s="2" t="s">
+      <c r="L495" s="7"/>
+      <c r="M495" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="N495" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O495" s="2"/>
-      <c r="P495" s="2"/>
-      <c r="Q495" s="2"/>
-      <c r="R495" s="2"/>
-      <c r="S495" s="2"/>
-      <c r="T495" s="2"/>
-      <c r="U495" s="2" t="s">
+      <c r="N495" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O495" s="5"/>
+      <c r="P495" s="5"/>
+      <c r="Q495" s="5"/>
+      <c r="R495" s="5"/>
+      <c r="S495" s="5"/>
+      <c r="T495" s="5"/>
+      <c r="U495" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="V495" s="2" t="s">
+      <c r="V495" s="5" t="s">
         <v>717</v>
       </c>
     </row>
@@ -30897,9 +30679,7 @@
       <c r="K500" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="L500" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L500" s="7"/>
       <c r="M500" s="2" t="s">
         <v>117</v>
       </c>
@@ -31518,46 +31298,44 @@
       <c r="V511" s="2"/>
     </row>
     <row r="512" spans="1:22">
-      <c r="A512" s="2" t="s">
+      <c r="A512" s="5" t="s">
         <v>1436</v>
       </c>
-      <c r="B512" s="2" t="s">
+      <c r="B512" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C512" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D512" s="2"/>
-      <c r="E512" s="2"/>
-      <c r="F512" s="2"/>
-      <c r="G512" s="2"/>
-      <c r="H512" s="2"/>
-      <c r="I512" s="2"/>
-      <c r="J512" s="2" t="s">
+      <c r="C512" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D512" s="5"/>
+      <c r="E512" s="5"/>
+      <c r="F512" s="5"/>
+      <c r="G512" s="5"/>
+      <c r="H512" s="5"/>
+      <c r="I512" s="5"/>
+      <c r="J512" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="K512" s="2" t="s">
+      <c r="K512" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="L512" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M512" s="2" t="s">
+      <c r="L512" s="7"/>
+      <c r="M512" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N512" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O512" s="2"/>
-      <c r="P512" s="2"/>
-      <c r="Q512" s="2"/>
-      <c r="R512" s="2"/>
-      <c r="S512" s="2"/>
-      <c r="T512" s="2"/>
-      <c r="U512" s="2" t="s">
+      <c r="N512" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O512" s="5"/>
+      <c r="P512" s="5"/>
+      <c r="Q512" s="5"/>
+      <c r="R512" s="5"/>
+      <c r="S512" s="5"/>
+      <c r="T512" s="5"/>
+      <c r="U512" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="V512" s="2" t="s">
+      <c r="V512" s="5" t="s">
         <v>722</v>
       </c>
     </row>
@@ -31797,9 +31575,7 @@
         <v>542</v>
       </c>
       <c r="K517" s="2"/>
-      <c r="L517" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L517" s="7"/>
       <c r="M517" s="2" t="s">
         <v>75</v>
       </c>
@@ -31853,9 +31629,7 @@
         <v>542</v>
       </c>
       <c r="K518" s="2"/>
-      <c r="L518" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L518" s="7"/>
       <c r="M518" s="2" t="s">
         <v>75</v>
       </c>
@@ -31909,9 +31683,7 @@
         <v>542</v>
       </c>
       <c r="K519" s="2"/>
-      <c r="L519" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L519" s="7"/>
       <c r="M519" s="2" t="s">
         <v>75</v>
       </c>
@@ -31938,46 +31710,44 @@
       <c r="V519" s="2"/>
     </row>
     <row r="520" spans="1:22">
-      <c r="A520" s="2" t="s">
+      <c r="A520" s="5" t="s">
         <v>1444</v>
       </c>
-      <c r="B520" s="2" t="s">
+      <c r="B520" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C520" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D520" s="2"/>
-      <c r="E520" s="2"/>
-      <c r="F520" s="2"/>
-      <c r="G520" s="2"/>
-      <c r="H520" s="2"/>
-      <c r="I520" s="2"/>
-      <c r="J520" s="2" t="s">
+      <c r="C520" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D520" s="5"/>
+      <c r="E520" s="5"/>
+      <c r="F520" s="5"/>
+      <c r="G520" s="5"/>
+      <c r="H520" s="5"/>
+      <c r="I520" s="5"/>
+      <c r="J520" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="K520" s="2" t="s">
+      <c r="K520" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="L520" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M520" s="2" t="s">
+      <c r="L520" s="7"/>
+      <c r="M520" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="N520" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O520" s="2"/>
-      <c r="P520" s="2"/>
-      <c r="Q520" s="2"/>
-      <c r="R520" s="2"/>
-      <c r="S520" s="2"/>
-      <c r="T520" s="2"/>
-      <c r="U520" s="2" t="s">
+      <c r="N520" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O520" s="5"/>
+      <c r="P520" s="5"/>
+      <c r="Q520" s="5"/>
+      <c r="R520" s="5"/>
+      <c r="S520" s="5"/>
+      <c r="T520" s="5"/>
+      <c r="U520" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="V520" s="2" t="s">
+      <c r="V520" s="5" t="s">
         <v>723</v>
       </c>
     </row>
@@ -32290,46 +32060,44 @@
       <c r="V526" s="2"/>
     </row>
     <row r="527" spans="1:22">
-      <c r="A527" s="2" t="s">
+      <c r="A527" s="5" t="s">
         <v>1451</v>
       </c>
-      <c r="B527" s="2" t="s">
+      <c r="B527" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C527" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D527" s="2"/>
-      <c r="E527" s="2"/>
-      <c r="F527" s="2"/>
-      <c r="G527" s="2"/>
-      <c r="H527" s="2"/>
-      <c r="I527" s="2"/>
-      <c r="J527" s="2" t="s">
+      <c r="C527" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D527" s="5"/>
+      <c r="E527" s="5"/>
+      <c r="F527" s="5"/>
+      <c r="G527" s="5"/>
+      <c r="H527" s="5"/>
+      <c r="I527" s="5"/>
+      <c r="J527" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="K527" s="2" t="s">
+      <c r="K527" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="L527" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M527" s="2" t="s">
+      <c r="L527" s="7"/>
+      <c r="M527" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="N527" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O527" s="2"/>
-      <c r="P527" s="2"/>
-      <c r="Q527" s="2"/>
-      <c r="R527" s="2"/>
-      <c r="S527" s="2"/>
-      <c r="T527" s="2"/>
-      <c r="U527" s="2" t="s">
+      <c r="N527" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O527" s="5"/>
+      <c r="P527" s="5"/>
+      <c r="Q527" s="5"/>
+      <c r="R527" s="5"/>
+      <c r="S527" s="5"/>
+      <c r="T527" s="5"/>
+      <c r="U527" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="V527" s="2" t="s">
+      <c r="V527" s="5" t="s">
         <v>724</v>
       </c>
     </row>
@@ -32492,46 +32260,44 @@
       <c r="V530" s="2"/>
     </row>
     <row r="531" spans="1:22">
-      <c r="A531" s="2" t="s">
+      <c r="A531" s="5" t="s">
         <v>1455</v>
       </c>
-      <c r="B531" s="2" t="s">
+      <c r="B531" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C531" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D531" s="2"/>
-      <c r="E531" s="2"/>
-      <c r="F531" s="2"/>
-      <c r="G531" s="2"/>
-      <c r="H531" s="2"/>
-      <c r="I531" s="2"/>
-      <c r="J531" s="2" t="s">
+      <c r="C531" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D531" s="5"/>
+      <c r="E531" s="5"/>
+      <c r="F531" s="5"/>
+      <c r="G531" s="5"/>
+      <c r="H531" s="5"/>
+      <c r="I531" s="5"/>
+      <c r="J531" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="K531" s="2" t="s">
+      <c r="K531" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="L531" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M531" s="2" t="s">
+      <c r="L531" s="7"/>
+      <c r="M531" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="N531" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O531" s="2"/>
-      <c r="P531" s="2"/>
-      <c r="Q531" s="2"/>
-      <c r="R531" s="2"/>
-      <c r="S531" s="2"/>
-      <c r="T531" s="2"/>
-      <c r="U531" s="2" t="s">
+      <c r="N531" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O531" s="5"/>
+      <c r="P531" s="5"/>
+      <c r="Q531" s="5"/>
+      <c r="R531" s="5"/>
+      <c r="S531" s="5"/>
+      <c r="T531" s="5"/>
+      <c r="U531" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="V531" s="2" t="s">
+      <c r="V531" s="5" t="s">
         <v>725</v>
       </c>
     </row>
@@ -32790,44 +32556,42 @@
       <c r="V536" s="2"/>
     </row>
     <row r="537" spans="1:22">
-      <c r="A537" s="2" t="s">
+      <c r="A537" s="5" t="s">
         <v>1461</v>
       </c>
-      <c r="B537" s="2" t="s">
+      <c r="B537" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C537" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D537" s="2"/>
-      <c r="E537" s="2"/>
-      <c r="F537" s="2"/>
-      <c r="G537" s="2"/>
-      <c r="H537" s="2"/>
-      <c r="I537" s="2"/>
-      <c r="J537" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K537" s="2"/>
-      <c r="L537" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M537" s="2" t="s">
+      <c r="C537" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D537" s="5"/>
+      <c r="E537" s="5"/>
+      <c r="F537" s="5"/>
+      <c r="G537" s="5"/>
+      <c r="H537" s="5"/>
+      <c r="I537" s="5"/>
+      <c r="J537" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K537" s="5"/>
+      <c r="L537" s="7"/>
+      <c r="M537" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="N537" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O537" s="2"/>
-      <c r="P537" s="2"/>
-      <c r="Q537" s="2"/>
-      <c r="R537" s="2"/>
-      <c r="S537" s="2"/>
-      <c r="T537" s="2"/>
-      <c r="U537" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V537" s="2"/>
+      <c r="N537" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O537" s="5"/>
+      <c r="P537" s="5"/>
+      <c r="Q537" s="5"/>
+      <c r="R537" s="5"/>
+      <c r="S537" s="5"/>
+      <c r="T537" s="5"/>
+      <c r="U537" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V537" s="5"/>
     </row>
     <row r="538" spans="1:22">
       <c r="A538" s="2" t="s">
@@ -33227,9 +32991,7 @@
         <v>542</v>
       </c>
       <c r="K545" s="2"/>
-      <c r="L545" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L545" s="7"/>
       <c r="M545" s="2" t="s">
         <v>124</v>
       </c>
@@ -33283,9 +33045,7 @@
         <v>542</v>
       </c>
       <c r="K546" s="2"/>
-      <c r="L546" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L546" s="7"/>
       <c r="M546" s="2" t="s">
         <v>124</v>
       </c>
@@ -33339,9 +33099,7 @@
         <v>542</v>
       </c>
       <c r="K547" s="2"/>
-      <c r="L547" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L547" s="7"/>
       <c r="M547" s="2" t="s">
         <v>124</v>
       </c>
@@ -33426,46 +33184,44 @@
       </c>
     </row>
     <row r="549" spans="1:22">
-      <c r="A549" s="2" t="s">
+      <c r="A549" s="5" t="s">
         <v>1473</v>
       </c>
-      <c r="B549" s="2" t="s">
+      <c r="B549" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C549" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D549" s="2"/>
-      <c r="E549" s="2"/>
-      <c r="F549" s="2"/>
-      <c r="G549" s="2"/>
-      <c r="H549" s="2"/>
-      <c r="I549" s="2"/>
-      <c r="J549" s="2" t="s">
+      <c r="C549" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D549" s="5"/>
+      <c r="E549" s="5"/>
+      <c r="F549" s="5"/>
+      <c r="G549" s="5"/>
+      <c r="H549" s="5"/>
+      <c r="I549" s="5"/>
+      <c r="J549" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="K549" s="2" t="s">
+      <c r="K549" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="L549" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M549" s="2" t="s">
+      <c r="L549" s="7"/>
+      <c r="M549" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="N549" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O549" s="2"/>
-      <c r="P549" s="2"/>
-      <c r="Q549" s="2"/>
-      <c r="R549" s="2"/>
-      <c r="S549" s="2"/>
-      <c r="T549" s="2"/>
-      <c r="U549" s="2" t="s">
+      <c r="N549" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O549" s="5"/>
+      <c r="P549" s="5"/>
+      <c r="Q549" s="5"/>
+      <c r="R549" s="5"/>
+      <c r="S549" s="5"/>
+      <c r="T549" s="5"/>
+      <c r="U549" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="V549" s="2" t="s">
+      <c r="V549" s="5" t="s">
         <v>728</v>
       </c>
     </row>
@@ -33728,44 +33484,42 @@
       <c r="V554" s="2"/>
     </row>
     <row r="555" spans="1:22">
-      <c r="A555" s="2" t="s">
+      <c r="A555" s="5" t="s">
         <v>1479</v>
       </c>
-      <c r="B555" s="2" t="s">
+      <c r="B555" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C555" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D555" s="2"/>
-      <c r="E555" s="2"/>
-      <c r="F555" s="2"/>
-      <c r="G555" s="2"/>
-      <c r="H555" s="2"/>
-      <c r="I555" s="2"/>
-      <c r="J555" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K555" s="2"/>
-      <c r="L555" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M555" s="2" t="s">
+      <c r="C555" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D555" s="5"/>
+      <c r="E555" s="5"/>
+      <c r="F555" s="5"/>
+      <c r="G555" s="5"/>
+      <c r="H555" s="5"/>
+      <c r="I555" s="5"/>
+      <c r="J555" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K555" s="5"/>
+      <c r="L555" s="7"/>
+      <c r="M555" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="N555" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O555" s="2"/>
-      <c r="P555" s="2"/>
-      <c r="Q555" s="2"/>
-      <c r="R555" s="2"/>
-      <c r="S555" s="2"/>
-      <c r="T555" s="2"/>
-      <c r="U555" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V555" s="2"/>
+      <c r="N555" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O555" s="5"/>
+      <c r="P555" s="5"/>
+      <c r="Q555" s="5"/>
+      <c r="R555" s="5"/>
+      <c r="S555" s="5"/>
+      <c r="T555" s="5"/>
+      <c r="U555" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V555" s="5"/>
     </row>
     <row r="556" spans="1:22">
       <c r="A556" s="2" t="s">
@@ -34161,9 +33915,7 @@
         <v>542</v>
       </c>
       <c r="K563" s="2"/>
-      <c r="L563" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L563" s="7"/>
       <c r="M563" s="2" t="s">
         <v>127</v>
       </c>
@@ -34217,9 +33969,7 @@
         <v>542</v>
       </c>
       <c r="K564" s="2"/>
-      <c r="L564" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L564" s="7"/>
       <c r="M564" s="2" t="s">
         <v>127</v>
       </c>
@@ -34273,9 +34023,7 @@
         <v>542</v>
       </c>
       <c r="K565" s="2"/>
-      <c r="L565" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L565" s="7"/>
       <c r="M565" s="2" t="s">
         <v>127</v>
       </c>
@@ -34329,9 +34077,7 @@
         <v>542</v>
       </c>
       <c r="K566" s="2"/>
-      <c r="L566" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L566" s="7"/>
       <c r="M566" s="2" t="s">
         <v>127</v>
       </c>
@@ -34385,9 +34131,7 @@
         <v>542</v>
       </c>
       <c r="K567" s="2"/>
-      <c r="L567" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L567" s="7"/>
       <c r="M567" s="2" t="s">
         <v>127</v>
       </c>
@@ -34414,46 +34158,44 @@
       <c r="V567" s="2"/>
     </row>
     <row r="568" spans="1:22">
-      <c r="A568" s="2" t="s">
+      <c r="A568" s="5" t="s">
         <v>1492</v>
       </c>
-      <c r="B568" s="2" t="s">
+      <c r="B568" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C568" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D568" s="2"/>
-      <c r="E568" s="2"/>
-      <c r="F568" s="2"/>
-      <c r="G568" s="2"/>
-      <c r="H568" s="2"/>
-      <c r="I568" s="2"/>
-      <c r="J568" s="2" t="s">
+      <c r="C568" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D568" s="5"/>
+      <c r="E568" s="5"/>
+      <c r="F568" s="5"/>
+      <c r="G568" s="5"/>
+      <c r="H568" s="5"/>
+      <c r="I568" s="5"/>
+      <c r="J568" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="K568" s="2" t="s">
+      <c r="K568" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="L568" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M568" s="2" t="s">
+      <c r="L568" s="7"/>
+      <c r="M568" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="N568" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O568" s="2"/>
-      <c r="P568" s="2"/>
-      <c r="Q568" s="2"/>
-      <c r="R568" s="2"/>
-      <c r="S568" s="2"/>
-      <c r="T568" s="2"/>
-      <c r="U568" s="2" t="s">
+      <c r="N568" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O568" s="5"/>
+      <c r="P568" s="5"/>
+      <c r="Q568" s="5"/>
+      <c r="R568" s="5"/>
+      <c r="S568" s="5"/>
+      <c r="T568" s="5"/>
+      <c r="U568" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="V568" s="2" t="s">
+      <c r="V568" s="5" t="s">
         <v>725</v>
       </c>
     </row>
@@ -34716,44 +34458,42 @@
       <c r="V573" s="2"/>
     </row>
     <row r="574" spans="1:22">
-      <c r="A574" s="2" t="s">
+      <c r="A574" s="5" t="s">
         <v>1498</v>
       </c>
-      <c r="B574" s="2" t="s">
+      <c r="B574" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C574" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D574" s="2"/>
-      <c r="E574" s="2"/>
-      <c r="F574" s="2"/>
-      <c r="G574" s="2"/>
-      <c r="H574" s="2"/>
-      <c r="I574" s="2"/>
-      <c r="J574" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K574" s="2"/>
-      <c r="L574" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M574" s="2" t="s">
+      <c r="C574" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D574" s="5"/>
+      <c r="E574" s="5"/>
+      <c r="F574" s="5"/>
+      <c r="G574" s="5"/>
+      <c r="H574" s="5"/>
+      <c r="I574" s="5"/>
+      <c r="J574" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K574" s="5"/>
+      <c r="L574" s="7"/>
+      <c r="M574" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="N574" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O574" s="2"/>
-      <c r="P574" s="2"/>
-      <c r="Q574" s="2"/>
-      <c r="R574" s="2"/>
-      <c r="S574" s="2"/>
-      <c r="T574" s="2"/>
-      <c r="U574" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V574" s="2"/>
+      <c r="N574" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O574" s="5"/>
+      <c r="P574" s="5"/>
+      <c r="Q574" s="5"/>
+      <c r="R574" s="5"/>
+      <c r="S574" s="5"/>
+      <c r="T574" s="5"/>
+      <c r="U574" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V574" s="5"/>
     </row>
     <row r="575" spans="1:22">
       <c r="A575" s="2" t="s">
@@ -35149,9 +34889,7 @@
         <v>542</v>
       </c>
       <c r="K582" s="2"/>
-      <c r="L582" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L582" s="7"/>
       <c r="M582" s="2" t="s">
         <v>130</v>
       </c>
@@ -35178,46 +34916,44 @@
       <c r="V582" s="2"/>
     </row>
     <row r="583" spans="1:22">
-      <c r="A583" s="2" t="s">
+      <c r="A583" s="5" t="s">
         <v>1507</v>
       </c>
-      <c r="B583" s="2" t="s">
+      <c r="B583" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C583" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D583" s="2"/>
-      <c r="E583" s="2"/>
-      <c r="F583" s="2"/>
-      <c r="G583" s="2"/>
-      <c r="H583" s="2"/>
-      <c r="I583" s="2"/>
-      <c r="J583" s="2" t="s">
+      <c r="C583" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D583" s="5"/>
+      <c r="E583" s="5"/>
+      <c r="F583" s="5"/>
+      <c r="G583" s="5"/>
+      <c r="H583" s="5"/>
+      <c r="I583" s="5"/>
+      <c r="J583" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="K583" s="2" t="s">
+      <c r="K583" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="L583" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M583" s="2" t="s">
+      <c r="L583" s="7"/>
+      <c r="M583" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="N583" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O583" s="2"/>
-      <c r="P583" s="2"/>
-      <c r="Q583" s="2"/>
-      <c r="R583" s="2"/>
-      <c r="S583" s="2"/>
-      <c r="T583" s="2"/>
-      <c r="U583" s="2" t="s">
+      <c r="N583" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O583" s="5"/>
+      <c r="P583" s="5"/>
+      <c r="Q583" s="5"/>
+      <c r="R583" s="5"/>
+      <c r="S583" s="5"/>
+      <c r="T583" s="5"/>
+      <c r="U583" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="V583" s="2" t="s">
+      <c r="V583" s="5" t="s">
         <v>725</v>
       </c>
     </row>
@@ -35337,9 +35073,7 @@
         <v>541</v>
       </c>
       <c r="K586" s="2"/>
-      <c r="L586" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L586" s="7"/>
       <c r="M586" s="2" t="s">
         <v>131</v>
       </c>
@@ -35624,46 +35358,44 @@
       </c>
     </row>
     <row r="592" spans="1:22">
-      <c r="A592" s="2" t="s">
+      <c r="A592" s="5" t="s">
         <v>1516</v>
       </c>
-      <c r="B592" s="2" t="s">
+      <c r="B592" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C592" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D592" s="2"/>
-      <c r="E592" s="2"/>
-      <c r="F592" s="2"/>
-      <c r="G592" s="2"/>
-      <c r="H592" s="2"/>
-      <c r="I592" s="2"/>
-      <c r="J592" s="2" t="s">
+      <c r="C592" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D592" s="5"/>
+      <c r="E592" s="5"/>
+      <c r="F592" s="5"/>
+      <c r="G592" s="5"/>
+      <c r="H592" s="5"/>
+      <c r="I592" s="5"/>
+      <c r="J592" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="K592" s="2" t="s">
+      <c r="K592" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="L592" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M592" s="2" t="s">
+      <c r="L592" s="7"/>
+      <c r="M592" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="N592" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O592" s="2"/>
-      <c r="P592" s="2"/>
-      <c r="Q592" s="2"/>
-      <c r="R592" s="2"/>
-      <c r="S592" s="2"/>
-      <c r="T592" s="2"/>
-      <c r="U592" s="2" t="s">
+      <c r="N592" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O592" s="5"/>
+      <c r="P592" s="5"/>
+      <c r="Q592" s="5"/>
+      <c r="R592" s="5"/>
+      <c r="S592" s="5"/>
+      <c r="T592" s="5"/>
+      <c r="U592" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="V592" s="2" t="s">
+      <c r="V592" s="5" t="s">
         <v>730</v>
       </c>
     </row>
@@ -36084,44 +35816,42 @@
       </c>
     </row>
     <row r="601" spans="1:22">
-      <c r="A601" s="2" t="s">
+      <c r="A601" s="5" t="s">
         <v>1525</v>
       </c>
-      <c r="B601" s="2" t="s">
+      <c r="B601" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C601" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D601" s="2"/>
-      <c r="E601" s="2"/>
-      <c r="F601" s="2"/>
-      <c r="G601" s="2"/>
-      <c r="H601" s="2"/>
-      <c r="I601" s="2"/>
-      <c r="J601" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K601" s="2"/>
-      <c r="L601" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M601" s="2" t="s">
+      <c r="C601" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D601" s="5"/>
+      <c r="E601" s="5"/>
+      <c r="F601" s="5"/>
+      <c r="G601" s="5"/>
+      <c r="H601" s="5"/>
+      <c r="I601" s="5"/>
+      <c r="J601" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K601" s="5"/>
+      <c r="L601" s="7"/>
+      <c r="M601" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="N601" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O601" s="2"/>
-      <c r="P601" s="2"/>
-      <c r="Q601" s="2"/>
-      <c r="R601" s="2"/>
-      <c r="S601" s="2"/>
-      <c r="T601" s="2"/>
-      <c r="U601" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V601" s="2"/>
+      <c r="N601" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O601" s="5"/>
+      <c r="P601" s="5"/>
+      <c r="Q601" s="5"/>
+      <c r="R601" s="5"/>
+      <c r="S601" s="5"/>
+      <c r="T601" s="5"/>
+      <c r="U601" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V601" s="5"/>
     </row>
     <row r="602" spans="1:22">
       <c r="A602" s="2" t="s">
@@ -36390,46 +36120,44 @@
       </c>
     </row>
     <row r="607" spans="1:22">
-      <c r="A607" s="2" t="s">
+      <c r="A607" s="5" t="s">
         <v>1531</v>
       </c>
-      <c r="B607" s="2" t="s">
+      <c r="B607" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C607" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D607" s="2"/>
-      <c r="E607" s="2"/>
-      <c r="F607" s="2"/>
-      <c r="G607" s="2"/>
-      <c r="H607" s="2"/>
-      <c r="I607" s="2"/>
-      <c r="J607" s="2" t="s">
+      <c r="C607" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D607" s="5"/>
+      <c r="E607" s="5"/>
+      <c r="F607" s="5"/>
+      <c r="G607" s="5"/>
+      <c r="H607" s="5"/>
+      <c r="I607" s="5"/>
+      <c r="J607" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="K607" s="2" t="s">
+      <c r="K607" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="L607" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M607" s="2" t="s">
+      <c r="L607" s="7"/>
+      <c r="M607" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="N607" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O607" s="2"/>
-      <c r="P607" s="2"/>
-      <c r="Q607" s="2"/>
-      <c r="R607" s="2"/>
-      <c r="S607" s="2"/>
-      <c r="T607" s="2"/>
-      <c r="U607" s="2" t="s">
+      <c r="N607" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O607" s="5"/>
+      <c r="P607" s="5"/>
+      <c r="Q607" s="5"/>
+      <c r="R607" s="5"/>
+      <c r="S607" s="5"/>
+      <c r="T607" s="5"/>
+      <c r="U607" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="V607" s="2" t="s">
+      <c r="V607" s="5" t="s">
         <v>731</v>
       </c>
     </row>
@@ -36692,44 +36420,42 @@
       </c>
     </row>
     <row r="613" spans="1:22">
-      <c r="A613" s="2" t="s">
+      <c r="A613" s="5" t="s">
         <v>1537</v>
       </c>
-      <c r="B613" s="2" t="s">
+      <c r="B613" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C613" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D613" s="2"/>
-      <c r="E613" s="2"/>
-      <c r="F613" s="2"/>
-      <c r="G613" s="2"/>
-      <c r="H613" s="2"/>
-      <c r="I613" s="2"/>
-      <c r="J613" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K613" s="2"/>
-      <c r="L613" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M613" s="2" t="s">
+      <c r="C613" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D613" s="5"/>
+      <c r="E613" s="5"/>
+      <c r="F613" s="5"/>
+      <c r="G613" s="5"/>
+      <c r="H613" s="5"/>
+      <c r="I613" s="5"/>
+      <c r="J613" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K613" s="5"/>
+      <c r="L613" s="7"/>
+      <c r="M613" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="N613" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O613" s="2"/>
-      <c r="P613" s="2"/>
-      <c r="Q613" s="2"/>
-      <c r="R613" s="2"/>
-      <c r="S613" s="2"/>
-      <c r="T613" s="2"/>
-      <c r="U613" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V613" s="2"/>
+      <c r="N613" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O613" s="5"/>
+      <c r="P613" s="5"/>
+      <c r="Q613" s="5"/>
+      <c r="R613" s="5"/>
+      <c r="S613" s="5"/>
+      <c r="T613" s="5"/>
+      <c r="U613" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V613" s="5"/>
     </row>
     <row r="614" spans="1:22">
       <c r="A614" s="2" t="s">
@@ -36986,46 +36712,44 @@
       <c r="V618" s="2"/>
     </row>
     <row r="619" spans="1:22">
-      <c r="A619" s="2" t="s">
+      <c r="A619" s="5" t="s">
         <v>1543</v>
       </c>
-      <c r="B619" s="2" t="s">
+      <c r="B619" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C619" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D619" s="2"/>
-      <c r="E619" s="2"/>
-      <c r="F619" s="2"/>
-      <c r="G619" s="2"/>
-      <c r="H619" s="2"/>
-      <c r="I619" s="2"/>
-      <c r="J619" s="2" t="s">
+      <c r="C619" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D619" s="5"/>
+      <c r="E619" s="5"/>
+      <c r="F619" s="5"/>
+      <c r="G619" s="5"/>
+      <c r="H619" s="5"/>
+      <c r="I619" s="5"/>
+      <c r="J619" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="K619" s="2" t="s">
+      <c r="K619" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="L619" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M619" s="2" t="s">
+      <c r="L619" s="7"/>
+      <c r="M619" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="N619" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O619" s="2"/>
-      <c r="P619" s="2"/>
-      <c r="Q619" s="2"/>
-      <c r="R619" s="2"/>
-      <c r="S619" s="2"/>
-      <c r="T619" s="2"/>
-      <c r="U619" s="2" t="s">
+      <c r="N619" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O619" s="5"/>
+      <c r="P619" s="5"/>
+      <c r="Q619" s="5"/>
+      <c r="R619" s="5"/>
+      <c r="S619" s="5"/>
+      <c r="T619" s="5"/>
+      <c r="U619" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="V619" s="2" t="s">
+      <c r="V619" s="5" t="s">
         <v>732</v>
       </c>
     </row>
@@ -37288,44 +37012,42 @@
       </c>
     </row>
     <row r="625" spans="1:22">
-      <c r="A625" s="2" t="s">
+      <c r="A625" s="5" t="s">
         <v>1549</v>
       </c>
-      <c r="B625" s="2" t="s">
+      <c r="B625" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C625" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D625" s="2"/>
-      <c r="E625" s="2"/>
-      <c r="F625" s="2"/>
-      <c r="G625" s="2"/>
-      <c r="H625" s="2"/>
-      <c r="I625" s="2"/>
-      <c r="J625" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K625" s="2"/>
-      <c r="L625" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M625" s="2" t="s">
+      <c r="C625" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D625" s="5"/>
+      <c r="E625" s="5"/>
+      <c r="F625" s="5"/>
+      <c r="G625" s="5"/>
+      <c r="H625" s="5"/>
+      <c r="I625" s="5"/>
+      <c r="J625" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K625" s="5"/>
+      <c r="L625" s="7"/>
+      <c r="M625" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="N625" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O625" s="2"/>
-      <c r="P625" s="2"/>
-      <c r="Q625" s="2"/>
-      <c r="R625" s="2"/>
-      <c r="S625" s="2"/>
-      <c r="T625" s="2"/>
-      <c r="U625" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V625" s="2"/>
+      <c r="N625" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O625" s="5"/>
+      <c r="P625" s="5"/>
+      <c r="Q625" s="5"/>
+      <c r="R625" s="5"/>
+      <c r="S625" s="5"/>
+      <c r="T625" s="5"/>
+      <c r="U625" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V625" s="5"/>
     </row>
     <row r="626" spans="1:22">
       <c r="A626" s="2" t="s">
@@ -37532,44 +37254,42 @@
       <c r="V629" s="2"/>
     </row>
     <row r="630" spans="1:22">
-      <c r="A630" s="2" t="s">
+      <c r="A630" s="5" t="s">
         <v>1554</v>
       </c>
-      <c r="B630" s="2" t="s">
+      <c r="B630" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C630" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D630" s="2"/>
-      <c r="E630" s="2"/>
-      <c r="F630" s="2"/>
-      <c r="G630" s="2"/>
-      <c r="H630" s="2"/>
-      <c r="I630" s="2"/>
-      <c r="J630" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K630" s="2"/>
-      <c r="L630" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M630" s="2" t="s">
+      <c r="C630" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D630" s="5"/>
+      <c r="E630" s="5"/>
+      <c r="F630" s="5"/>
+      <c r="G630" s="5"/>
+      <c r="H630" s="5"/>
+      <c r="I630" s="5"/>
+      <c r="J630" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K630" s="5"/>
+      <c r="L630" s="7"/>
+      <c r="M630" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="N630" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O630" s="2"/>
-      <c r="P630" s="2"/>
-      <c r="Q630" s="2"/>
-      <c r="R630" s="2"/>
-      <c r="S630" s="2"/>
-      <c r="T630" s="2"/>
-      <c r="U630" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V630" s="2"/>
+      <c r="N630" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O630" s="5"/>
+      <c r="P630" s="5"/>
+      <c r="Q630" s="5"/>
+      <c r="R630" s="5"/>
+      <c r="S630" s="5"/>
+      <c r="T630" s="5"/>
+      <c r="U630" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V630" s="5"/>
     </row>
     <row r="631" spans="1:22">
       <c r="A631" s="2" t="s">
@@ -37757,9 +37477,7 @@
         <v>542</v>
       </c>
       <c r="K634" s="2"/>
-      <c r="L634" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L634" s="7"/>
       <c r="M634" s="2" t="s">
         <v>135</v>
       </c>
@@ -37886,44 +37604,42 @@
       <c r="V636" s="2"/>
     </row>
     <row r="637" spans="1:22">
-      <c r="A637" s="2" t="s">
+      <c r="A637" s="5" t="s">
         <v>1561</v>
       </c>
-      <c r="B637" s="2" t="s">
+      <c r="B637" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C637" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D637" s="2"/>
-      <c r="E637" s="2"/>
-      <c r="F637" s="2"/>
-      <c r="G637" s="2"/>
-      <c r="H637" s="2"/>
-      <c r="I637" s="2"/>
-      <c r="J637" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K637" s="2"/>
-      <c r="L637" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M637" s="2" t="s">
+      <c r="C637" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D637" s="5"/>
+      <c r="E637" s="5"/>
+      <c r="F637" s="5"/>
+      <c r="G637" s="5"/>
+      <c r="H637" s="5"/>
+      <c r="I637" s="5"/>
+      <c r="J637" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K637" s="5"/>
+      <c r="L637" s="7"/>
+      <c r="M637" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="N637" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O637" s="2"/>
-      <c r="P637" s="2"/>
-      <c r="Q637" s="2"/>
-      <c r="R637" s="2"/>
-      <c r="S637" s="2"/>
-      <c r="T637" s="2"/>
-      <c r="U637" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V637" s="2"/>
+      <c r="N637" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O637" s="5"/>
+      <c r="P637" s="5"/>
+      <c r="Q637" s="5"/>
+      <c r="R637" s="5"/>
+      <c r="S637" s="5"/>
+      <c r="T637" s="5"/>
+      <c r="U637" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V637" s="5"/>
     </row>
     <row r="638" spans="1:22">
       <c r="A638" s="2" t="s">
@@ -38221,9 +37937,7 @@
         <v>542</v>
       </c>
       <c r="K643" s="2"/>
-      <c r="L643" s="4" t="s">
-        <v>737</v>
-      </c>
+      <c r="L643" s="7"/>
       <c r="M643" s="2" t="s">
         <v>138</v>
       </c>
@@ -38250,46 +37964,44 @@
       <c r="V643" s="2"/>
     </row>
     <row r="644" spans="1:22">
-      <c r="A644" s="2" t="s">
+      <c r="A644" s="5" t="s">
         <v>1568</v>
       </c>
-      <c r="B644" s="2" t="s">
+      <c r="B644" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C644" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D644" s="2"/>
-      <c r="E644" s="2"/>
-      <c r="F644" s="2"/>
-      <c r="G644" s="2"/>
-      <c r="H644" s="2"/>
-      <c r="I644" s="2"/>
-      <c r="J644" s="2" t="s">
+      <c r="C644" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D644" s="5"/>
+      <c r="E644" s="5"/>
+      <c r="F644" s="5"/>
+      <c r="G644" s="5"/>
+      <c r="H644" s="5"/>
+      <c r="I644" s="5"/>
+      <c r="J644" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="K644" s="2" t="s">
+      <c r="K644" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="L644" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M644" s="2" t="s">
+      <c r="L644" s="7"/>
+      <c r="M644" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="N644" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O644" s="2"/>
-      <c r="P644" s="2"/>
-      <c r="Q644" s="2"/>
-      <c r="R644" s="2"/>
-      <c r="S644" s="2"/>
-      <c r="T644" s="2"/>
-      <c r="U644" s="2" t="s">
+      <c r="N644" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O644" s="5"/>
+      <c r="P644" s="5"/>
+      <c r="Q644" s="5"/>
+      <c r="R644" s="5"/>
+      <c r="S644" s="5"/>
+      <c r="T644" s="5"/>
+      <c r="U644" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="V644" s="2" t="s">
+      <c r="V644" s="5" t="s">
         <v>734</v>
       </c>
     </row>
@@ -38552,44 +38264,42 @@
       </c>
     </row>
     <row r="650" spans="1:22">
-      <c r="A650" s="2" t="s">
+      <c r="A650" s="5" t="s">
         <v>1574</v>
       </c>
-      <c r="B650" s="2" t="s">
+      <c r="B650" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C650" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D650" s="2"/>
-      <c r="E650" s="2"/>
-      <c r="F650" s="2"/>
-      <c r="G650" s="2"/>
-      <c r="H650" s="2"/>
-      <c r="I650" s="2"/>
-      <c r="J650" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K650" s="2"/>
-      <c r="L650" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M650" s="2" t="s">
+      <c r="C650" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D650" s="5"/>
+      <c r="E650" s="5"/>
+      <c r="F650" s="5"/>
+      <c r="G650" s="5"/>
+      <c r="H650" s="5"/>
+      <c r="I650" s="5"/>
+      <c r="J650" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="K650" s="5"/>
+      <c r="L650" s="7"/>
+      <c r="M650" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="N650" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O650" s="2"/>
-      <c r="P650" s="2"/>
-      <c r="Q650" s="2"/>
-      <c r="R650" s="2"/>
-      <c r="S650" s="2"/>
-      <c r="T650" s="2"/>
-      <c r="U650" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="V650" s="2"/>
+      <c r="N650" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O650" s="5"/>
+      <c r="P650" s="5"/>
+      <c r="Q650" s="5"/>
+      <c r="R650" s="5"/>
+      <c r="S650" s="5"/>
+      <c r="T650" s="5"/>
+      <c r="U650" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="V650" s="5"/>
     </row>
     <row r="651" spans="1:22">
       <c r="A651" s="2" t="s">
@@ -38792,46 +38502,44 @@
       <c r="V654" s="2"/>
     </row>
     <row r="655" spans="1:22">
-      <c r="A655" s="2" t="s">
+      <c r="A655" s="5" t="s">
         <v>1579</v>
       </c>
-      <c r="B655" s="2" t="s">
+      <c r="B655" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C655" s="2" t="s">
+      <c r="C655" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D655" s="2"/>
-      <c r="E655" s="2"/>
-      <c r="F655" s="2"/>
-      <c r="G655" s="2"/>
-      <c r="H655" s="2"/>
-      <c r="I655" s="2"/>
-      <c r="J655" s="2" t="s">
+      <c r="D655" s="5"/>
+      <c r="E655" s="5"/>
+      <c r="F655" s="5"/>
+      <c r="G655" s="5"/>
+      <c r="H655" s="5"/>
+      <c r="I655" s="5"/>
+      <c r="J655" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="K655" s="2" t="s">
+      <c r="K655" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="L655" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="M655" s="2" t="s">
+      <c r="L655" s="7"/>
+      <c r="M655" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="N655" s="2" t="s">
+      <c r="N655" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="O655" s="2"/>
-      <c r="P655" s="2"/>
-      <c r="Q655" s="2"/>
-      <c r="R655" s="2"/>
-      <c r="S655" s="2"/>
-      <c r="T655" s="2"/>
-      <c r="U655" s="2" t="s">
+      <c r="O655" s="5"/>
+      <c r="P655" s="5"/>
+      <c r="Q655" s="5"/>
+      <c r="R655" s="5"/>
+      <c r="S655" s="5"/>
+      <c r="T655" s="5"/>
+      <c r="U655" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="V655" s="2" t="s">
+      <c r="V655" s="5" t="s">
         <v>735</v>
       </c>
     </row>
